--- a/Sprints/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
+++ b/Sprints/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devildrake\Documents\MAP_LegendOfRadev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devildrake\Documents\MAP_LegendOfRadev\Sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1066,7 +1066,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1195,7 +1195,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1226,230 +1225,217 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1572,11 +1558,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-256798224"/>
-        <c:axId val="-256796048"/>
+        <c:axId val="482623632"/>
+        <c:axId val="482621456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-256798224"/>
+        <c:axId val="482623632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1586,7 +1572,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-256796048"/>
+        <c:crossAx val="482621456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1594,7 +1580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-256796048"/>
+        <c:axId val="482621456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1605,7 +1591,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-256798224"/>
+        <c:crossAx val="482623632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1647,7 +1633,7 @@
         <xdr:cNvPr id="4" name="3 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1957,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K105" sqref="K105"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1987,164 +1973,164 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="110" t="s">
+      <c r="J2" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="111"/>
-      <c r="W2" s="112"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="84"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="77" t="s">
+      <c r="C3" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="78" t="s">
+      <c r="H3" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="79">
+      <c r="J3" s="64">
         <v>43040</v>
       </c>
-      <c r="K3" s="75">
+      <c r="K3" s="60">
         <v>43041</v>
       </c>
-      <c r="L3" s="74">
+      <c r="L3" s="59">
         <v>43042</v>
       </c>
-      <c r="M3" s="75">
+      <c r="M3" s="60">
         <v>43043</v>
       </c>
-      <c r="N3" s="74">
+      <c r="N3" s="59">
         <v>43044</v>
       </c>
-      <c r="O3" s="75">
+      <c r="O3" s="60">
         <v>43045</v>
       </c>
-      <c r="P3" s="74">
+      <c r="P3" s="59">
         <v>43046</v>
       </c>
-      <c r="Q3" s="75">
+      <c r="Q3" s="60">
         <v>43047</v>
       </c>
-      <c r="R3" s="74">
+      <c r="R3" s="59">
         <v>43048</v>
       </c>
-      <c r="S3" s="75">
+      <c r="S3" s="60">
         <v>43049</v>
       </c>
-      <c r="T3" s="74">
+      <c r="T3" s="59">
         <v>43050</v>
       </c>
-      <c r="U3" s="75">
+      <c r="U3" s="60">
         <v>43051</v>
       </c>
-      <c r="V3" s="74">
+      <c r="V3" s="59">
         <v>43052</v>
       </c>
-      <c r="W3" s="75">
+      <c r="W3" s="60">
         <v>43053</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48" t="s">
+      <c r="D4" s="46"/>
+      <c r="E4" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="46">
         <v>3</v>
       </c>
-      <c r="H4" s="49">
+      <c r="H4" s="48">
         <v>0.25</v>
       </c>
       <c r="I4" s="26">
         <f>SUM(J4:W4)</f>
         <v>0.05</v>
       </c>
-      <c r="J4" s="54">
-        <v>0</v>
-      </c>
-      <c r="K4" s="50">
-        <v>0</v>
-      </c>
-      <c r="L4" s="50">
-        <v>0</v>
-      </c>
-      <c r="M4" s="50">
-        <v>0</v>
-      </c>
-      <c r="N4" s="50">
-        <v>0</v>
-      </c>
-      <c r="O4" s="50">
-        <v>0</v>
-      </c>
-      <c r="P4" s="50">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="65">
+      <c r="J4" s="53">
+        <v>0</v>
+      </c>
+      <c r="K4" s="49">
+        <v>0</v>
+      </c>
+      <c r="L4" s="49">
+        <v>0</v>
+      </c>
+      <c r="M4" s="49">
+        <v>0</v>
+      </c>
+      <c r="N4" s="49">
+        <v>0</v>
+      </c>
+      <c r="O4" s="49">
+        <v>0</v>
+      </c>
+      <c r="P4" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="111">
         <v>0.05</v>
       </c>
-      <c r="R4" s="68">
-        <v>0</v>
-      </c>
-      <c r="S4" s="68">
-        <v>0</v>
-      </c>
-      <c r="T4" s="68">
-        <v>0</v>
-      </c>
-      <c r="U4" s="68">
-        <v>0</v>
-      </c>
-      <c r="V4" s="68">
-        <v>0</v>
-      </c>
-      <c r="W4" s="69">
+      <c r="R4" s="111">
+        <v>0</v>
+      </c>
+      <c r="S4" s="111">
+        <v>0</v>
+      </c>
+      <c r="T4" s="111">
+        <v>0</v>
+      </c>
+      <c r="U4" s="111">
+        <v>0</v>
+      </c>
+      <c r="V4" s="111">
+        <v>0</v>
+      </c>
+      <c r="W4" s="112">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="132"/>
-      <c r="C5" s="113" t="s">
+      <c r="B5" s="94"/>
+      <c r="C5" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="58" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -2153,7 +2139,7 @@
       <c r="F5" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="64">
+      <c r="G5" s="58">
         <v>3</v>
       </c>
       <c r="H5" s="21">
@@ -2163,7 +2149,7 @@
         <f t="shared" ref="I5:I53" si="0">SUM(J5:W5)</f>
         <v>0.5</v>
       </c>
-      <c r="J5" s="55">
+      <c r="J5" s="54">
         <v>0</v>
       </c>
       <c r="K5" s="41">
@@ -2184,31 +2170,31 @@
       <c r="P5" s="41">
         <v>0</v>
       </c>
-      <c r="Q5" s="66">
+      <c r="Q5" s="113">
         <v>0.5</v>
       </c>
-      <c r="R5" s="70">
-        <v>0</v>
-      </c>
-      <c r="S5" s="70">
-        <v>0</v>
-      </c>
-      <c r="T5" s="70">
-        <v>0</v>
-      </c>
-      <c r="U5" s="70">
-        <v>0</v>
-      </c>
-      <c r="V5" s="70">
-        <v>0</v>
-      </c>
-      <c r="W5" s="71">
+      <c r="R5" s="113">
+        <v>0</v>
+      </c>
+      <c r="S5" s="113">
+        <v>0</v>
+      </c>
+      <c r="T5" s="113">
+        <v>0</v>
+      </c>
+      <c r="U5" s="113">
+        <v>0</v>
+      </c>
+      <c r="V5" s="113">
+        <v>0</v>
+      </c>
+      <c r="W5" s="114">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="132"/>
-      <c r="C6" s="134"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="97"/>
       <c r="D6" s="15" t="s">
         <v>20</v>
       </c>
@@ -2218,7 +2204,7 @@
       <c r="F6" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="64">
+      <c r="G6" s="58">
         <v>3</v>
       </c>
       <c r="H6" s="21">
@@ -2228,7 +2214,7 @@
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="J6" s="55">
+      <c r="J6" s="54">
         <v>0</v>
       </c>
       <c r="K6" s="41">
@@ -2249,30 +2235,30 @@
       <c r="P6" s="41">
         <v>0</v>
       </c>
-      <c r="Q6" s="66">
+      <c r="Q6" s="113">
         <v>0.1</v>
       </c>
-      <c r="R6" s="70">
-        <v>0</v>
-      </c>
-      <c r="S6" s="70">
-        <v>0</v>
-      </c>
-      <c r="T6" s="70">
-        <v>0</v>
-      </c>
-      <c r="U6" s="70">
-        <v>0</v>
-      </c>
-      <c r="V6" s="70">
-        <v>0</v>
-      </c>
-      <c r="W6" s="71">
+      <c r="R6" s="113">
+        <v>0</v>
+      </c>
+      <c r="S6" s="113">
+        <v>0</v>
+      </c>
+      <c r="T6" s="113">
+        <v>0</v>
+      </c>
+      <c r="U6" s="113">
+        <v>0</v>
+      </c>
+      <c r="V6" s="113">
+        <v>0</v>
+      </c>
+      <c r="W6" s="114">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="132"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
@@ -2283,7 +2269,7 @@
       <c r="F7" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="64">
+      <c r="G7" s="58">
         <v>3</v>
       </c>
       <c r="H7" s="21">
@@ -2293,7 +2279,7 @@
         <f t="shared" si="0"/>
         <v>0.68700000000000006</v>
       </c>
-      <c r="J7" s="55">
+      <c r="J7" s="54">
         <v>0</v>
       </c>
       <c r="K7" s="41">
@@ -2314,41 +2300,41 @@
       <c r="P7" s="41">
         <v>0</v>
       </c>
-      <c r="Q7" s="66">
+      <c r="Q7" s="113">
         <v>0.68700000000000006</v>
       </c>
-      <c r="R7" s="70">
-        <v>0</v>
-      </c>
-      <c r="S7" s="70">
-        <v>0</v>
-      </c>
-      <c r="T7" s="70">
-        <v>0</v>
-      </c>
-      <c r="U7" s="70">
-        <v>0</v>
-      </c>
-      <c r="V7" s="70">
-        <v>0</v>
-      </c>
-      <c r="W7" s="71">
+      <c r="R7" s="113">
+        <v>0</v>
+      </c>
+      <c r="S7" s="113">
+        <v>0</v>
+      </c>
+      <c r="T7" s="113">
+        <v>0</v>
+      </c>
+      <c r="U7" s="113">
+        <v>0</v>
+      </c>
+      <c r="V7" s="113">
+        <v>0</v>
+      </c>
+      <c r="W7" s="114">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="132"/>
-      <c r="C8" s="63" t="s">
+      <c r="B8" s="94"/>
+      <c r="C8" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="63"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="64">
+      <c r="G8" s="58">
         <v>3</v>
       </c>
       <c r="H8" s="21">
@@ -2358,7 +2344,7 @@
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="J8" s="55">
+      <c r="J8" s="54">
         <v>0</v>
       </c>
       <c r="K8" s="41">
@@ -2379,30 +2365,30 @@
       <c r="P8" s="41">
         <v>0</v>
       </c>
-      <c r="Q8" s="66">
+      <c r="Q8" s="113">
         <v>0.25</v>
       </c>
-      <c r="R8" s="70">
-        <v>0</v>
-      </c>
-      <c r="S8" s="70">
-        <v>0</v>
-      </c>
-      <c r="T8" s="70">
-        <v>0</v>
-      </c>
-      <c r="U8" s="70">
-        <v>0</v>
-      </c>
-      <c r="V8" s="70">
-        <v>0</v>
-      </c>
-      <c r="W8" s="71">
+      <c r="R8" s="113">
+        <v>0</v>
+      </c>
+      <c r="S8" s="113">
+        <v>0</v>
+      </c>
+      <c r="T8" s="113">
+        <v>0</v>
+      </c>
+      <c r="U8" s="113">
+        <v>0</v>
+      </c>
+      <c r="V8" s="113">
+        <v>0</v>
+      </c>
+      <c r="W8" s="114">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="133"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="29" t="s">
         <v>104</v>
       </c>
@@ -2419,11 +2405,11 @@
       <c r="H9" s="34">
         <v>2</v>
       </c>
-      <c r="I9" s="62">
+      <c r="I9" s="56">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="J9" s="56">
+      <c r="J9" s="55">
         <v>0</v>
       </c>
       <c r="K9" s="42">
@@ -2444,53 +2430,53 @@
       <c r="P9" s="42">
         <v>0</v>
       </c>
-      <c r="Q9" s="67">
+      <c r="Q9" s="115">
         <v>0.4</v>
       </c>
-      <c r="R9" s="72">
-        <v>0</v>
-      </c>
-      <c r="S9" s="72">
-        <v>0</v>
-      </c>
-      <c r="T9" s="72">
-        <v>0</v>
-      </c>
-      <c r="U9" s="72">
-        <v>0</v>
-      </c>
-      <c r="V9" s="72">
-        <v>0</v>
-      </c>
-      <c r="W9" s="73">
+      <c r="R9" s="115">
+        <v>0</v>
+      </c>
+      <c r="S9" s="115">
+        <v>0</v>
+      </c>
+      <c r="T9" s="115">
+        <v>0</v>
+      </c>
+      <c r="U9" s="115">
+        <v>0</v>
+      </c>
+      <c r="V9" s="115">
+        <v>0</v>
+      </c>
+      <c r="W9" s="116">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B10" s="129" t="s">
+      <c r="B10" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="64"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G10" s="64">
+      <c r="G10" s="58">
         <v>3</v>
       </c>
       <c r="H10" s="21">
         <v>1</v>
       </c>
-      <c r="I10" s="81">
+      <c r="I10" s="66">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="J10" s="82">
+      <c r="J10" s="67">
         <v>0</v>
       </c>
       <c r="K10" s="43">
@@ -2520,21 +2506,21 @@
       <c r="S10" s="43">
         <v>0</v>
       </c>
-      <c r="T10" s="106">
+      <c r="T10" s="117">
         <v>0.75</v>
       </c>
-      <c r="U10" s="106">
-        <v>0</v>
-      </c>
-      <c r="V10" s="106">
-        <v>0</v>
-      </c>
-      <c r="W10" s="108">
+      <c r="U10" s="117">
+        <v>0</v>
+      </c>
+      <c r="V10" s="117">
+        <v>0</v>
+      </c>
+      <c r="W10" s="118">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B11" s="129"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
@@ -2551,11 +2537,11 @@
       <c r="H11" s="22">
         <v>0.5</v>
       </c>
-      <c r="I11" s="52">
+      <c r="I11" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="55">
+      <c r="J11" s="54">
         <v>0</v>
       </c>
       <c r="K11" s="41">
@@ -2599,8 +2585,8 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B12" s="129"/>
-      <c r="C12" s="113" t="s">
+      <c r="B12" s="91"/>
+      <c r="C12" s="96" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="40" t="s">
@@ -2618,11 +2604,11 @@
       <c r="H12" s="23">
         <v>2</v>
       </c>
-      <c r="I12" s="52">
+      <c r="I12" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="55">
+      <c r="J12" s="54">
         <v>0</v>
       </c>
       <c r="K12" s="41">
@@ -2666,8 +2652,8 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="130"/>
-      <c r="C13" s="114"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="30" t="s">
         <v>112</v>
       </c>
@@ -2683,55 +2669,55 @@
       <c r="H13" s="32">
         <v>2</v>
       </c>
-      <c r="I13" s="53">
+      <c r="I13" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="87">
-        <v>0</v>
-      </c>
-      <c r="K13" s="88">
-        <v>0</v>
-      </c>
-      <c r="L13" s="88">
-        <v>0</v>
-      </c>
-      <c r="M13" s="88">
-        <v>0</v>
-      </c>
-      <c r="N13" s="88">
-        <v>0</v>
-      </c>
-      <c r="O13" s="88">
-        <v>0</v>
-      </c>
-      <c r="P13" s="88">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="88">
-        <v>0</v>
-      </c>
-      <c r="R13" s="88">
-        <v>0</v>
-      </c>
-      <c r="S13" s="88">
-        <v>0</v>
-      </c>
-      <c r="T13" s="88">
-        <v>0</v>
-      </c>
-      <c r="U13" s="88">
-        <v>0</v>
-      </c>
-      <c r="V13" s="88">
-        <v>0</v>
-      </c>
-      <c r="W13" s="88">
+      <c r="J13" s="69">
+        <v>0</v>
+      </c>
+      <c r="K13" s="70">
+        <v>0</v>
+      </c>
+      <c r="L13" s="70">
+        <v>0</v>
+      </c>
+      <c r="M13" s="70">
+        <v>0</v>
+      </c>
+      <c r="N13" s="70">
+        <v>0</v>
+      </c>
+      <c r="O13" s="70">
+        <v>0</v>
+      </c>
+      <c r="P13" s="70">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="70">
+        <v>0</v>
+      </c>
+      <c r="R13" s="70">
+        <v>0</v>
+      </c>
+      <c r="S13" s="70">
+        <v>0</v>
+      </c>
+      <c r="T13" s="70">
+        <v>0</v>
+      </c>
+      <c r="U13" s="70">
+        <v>0</v>
+      </c>
+      <c r="V13" s="70">
+        <v>0</v>
+      </c>
+      <c r="W13" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="126" t="s">
+      <c r="B14" s="88" t="s">
         <v>114</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -2754,51 +2740,51 @@
         <f t="shared" si="0"/>
         <v>1.62</v>
       </c>
-      <c r="J14" s="50">
-        <v>0</v>
-      </c>
-      <c r="K14" s="90">
-        <v>0</v>
-      </c>
-      <c r="L14" s="90">
-        <v>0</v>
-      </c>
-      <c r="M14" s="90">
-        <v>0</v>
-      </c>
-      <c r="N14" s="90">
-        <v>0</v>
-      </c>
-      <c r="O14" s="90">
-        <v>0</v>
-      </c>
-      <c r="P14" s="86">
+      <c r="J14" s="49">
+        <v>0</v>
+      </c>
+      <c r="K14" s="72">
+        <v>0</v>
+      </c>
+      <c r="L14" s="72">
+        <v>0</v>
+      </c>
+      <c r="M14" s="72">
+        <v>0</v>
+      </c>
+      <c r="N14" s="72">
+        <v>0</v>
+      </c>
+      <c r="O14" s="72">
+        <v>0</v>
+      </c>
+      <c r="P14" s="120">
         <v>1.62</v>
       </c>
-      <c r="Q14" s="86">
-        <v>0</v>
-      </c>
-      <c r="R14" s="86">
-        <v>0</v>
-      </c>
-      <c r="S14" s="86">
-        <v>0</v>
-      </c>
-      <c r="T14" s="86">
-        <v>0</v>
-      </c>
-      <c r="U14" s="86">
-        <v>0</v>
-      </c>
-      <c r="V14" s="86">
-        <v>0</v>
-      </c>
-      <c r="W14" s="91">
+      <c r="Q14" s="120">
+        <v>0</v>
+      </c>
+      <c r="R14" s="120">
+        <v>0</v>
+      </c>
+      <c r="S14" s="120">
+        <v>0</v>
+      </c>
+      <c r="T14" s="120">
+        <v>0</v>
+      </c>
+      <c r="U14" s="120">
+        <v>0</v>
+      </c>
+      <c r="V14" s="120">
+        <v>0</v>
+      </c>
+      <c r="W14" s="121">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="126"/>
+      <c r="B15" s="88"/>
       <c r="C15" s="4" t="s">
         <v>26</v>
       </c>
@@ -2822,48 +2808,48 @@
       <c r="J15" s="41">
         <v>0</v>
       </c>
-      <c r="K15" s="89">
-        <v>0</v>
-      </c>
-      <c r="L15" s="89">
-        <v>0</v>
-      </c>
-      <c r="M15" s="89">
-        <v>0</v>
-      </c>
-      <c r="N15" s="89">
-        <v>0</v>
-      </c>
-      <c r="O15" s="89">
-        <v>0</v>
-      </c>
-      <c r="P15" s="46">
+      <c r="K15" s="71">
+        <v>0</v>
+      </c>
+      <c r="L15" s="71">
+        <v>0</v>
+      </c>
+      <c r="M15" s="71">
+        <v>0</v>
+      </c>
+      <c r="N15" s="71">
+        <v>0</v>
+      </c>
+      <c r="O15" s="71">
+        <v>0</v>
+      </c>
+      <c r="P15" s="119">
         <v>0.1</v>
       </c>
-      <c r="Q15" s="46">
-        <v>0</v>
-      </c>
-      <c r="R15" s="46">
-        <v>0</v>
-      </c>
-      <c r="S15" s="46">
-        <v>0</v>
-      </c>
-      <c r="T15" s="46">
-        <v>0</v>
-      </c>
-      <c r="U15" s="46">
-        <v>0</v>
-      </c>
-      <c r="V15" s="46">
-        <v>0</v>
-      </c>
-      <c r="W15" s="61">
+      <c r="Q15" s="119">
+        <v>0</v>
+      </c>
+      <c r="R15" s="119">
+        <v>0</v>
+      </c>
+      <c r="S15" s="119">
+        <v>0</v>
+      </c>
+      <c r="T15" s="119">
+        <v>0</v>
+      </c>
+      <c r="U15" s="119">
+        <v>0</v>
+      </c>
+      <c r="V15" s="119">
+        <v>0</v>
+      </c>
+      <c r="W15" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="126"/>
+      <c r="B16" s="88"/>
       <c r="C16" s="4" t="s">
         <v>28</v>
       </c>
@@ -2887,48 +2873,48 @@
       <c r="J16" s="41">
         <v>0</v>
       </c>
-      <c r="K16" s="89">
-        <v>0</v>
-      </c>
-      <c r="L16" s="89">
-        <v>0</v>
-      </c>
-      <c r="M16" s="89">
-        <v>0</v>
-      </c>
-      <c r="N16" s="89">
-        <v>0</v>
-      </c>
-      <c r="O16" s="89">
-        <v>0</v>
-      </c>
-      <c r="P16" s="46">
+      <c r="K16" s="71">
+        <v>0</v>
+      </c>
+      <c r="L16" s="71">
+        <v>0</v>
+      </c>
+      <c r="M16" s="71">
+        <v>0</v>
+      </c>
+      <c r="N16" s="71">
+        <v>0</v>
+      </c>
+      <c r="O16" s="71">
+        <v>0</v>
+      </c>
+      <c r="P16" s="119">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="Q16" s="46">
-        <v>0</v>
-      </c>
-      <c r="R16" s="46">
-        <v>0</v>
-      </c>
-      <c r="S16" s="46">
-        <v>0</v>
-      </c>
-      <c r="T16" s="46">
-        <v>0</v>
-      </c>
-      <c r="U16" s="46">
-        <v>0</v>
-      </c>
-      <c r="V16" s="46">
-        <v>0</v>
-      </c>
-      <c r="W16" s="61">
+      <c r="Q16" s="119">
+        <v>0</v>
+      </c>
+      <c r="R16" s="119">
+        <v>0</v>
+      </c>
+      <c r="S16" s="119">
+        <v>0</v>
+      </c>
+      <c r="T16" s="119">
+        <v>0</v>
+      </c>
+      <c r="U16" s="119">
+        <v>0</v>
+      </c>
+      <c r="V16" s="119">
+        <v>0</v>
+      </c>
+      <c r="W16" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="126"/>
+      <c r="B17" s="88"/>
       <c r="C17" s="4" t="s">
         <v>29</v>
       </c>
@@ -2952,48 +2938,48 @@
       <c r="J17" s="41">
         <v>0</v>
       </c>
-      <c r="K17" s="89">
-        <v>0</v>
-      </c>
-      <c r="L17" s="89">
-        <v>0</v>
-      </c>
-      <c r="M17" s="89">
-        <v>0</v>
-      </c>
-      <c r="N17" s="89">
-        <v>0</v>
-      </c>
-      <c r="O17" s="89">
-        <v>0</v>
-      </c>
-      <c r="P17" s="46">
+      <c r="K17" s="71">
+        <v>0</v>
+      </c>
+      <c r="L17" s="71">
+        <v>0</v>
+      </c>
+      <c r="M17" s="71">
+        <v>0</v>
+      </c>
+      <c r="N17" s="71">
+        <v>0</v>
+      </c>
+      <c r="O17" s="71">
+        <v>0</v>
+      </c>
+      <c r="P17" s="119">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="Q17" s="46">
-        <v>0</v>
-      </c>
-      <c r="R17" s="46">
-        <v>0</v>
-      </c>
-      <c r="S17" s="46">
-        <v>0</v>
-      </c>
-      <c r="T17" s="46">
-        <v>0</v>
-      </c>
-      <c r="U17" s="46">
-        <v>0</v>
-      </c>
-      <c r="V17" s="46">
-        <v>0</v>
-      </c>
-      <c r="W17" s="61">
+      <c r="Q17" s="119">
+        <v>0</v>
+      </c>
+      <c r="R17" s="119">
+        <v>0</v>
+      </c>
+      <c r="S17" s="119">
+        <v>0</v>
+      </c>
+      <c r="T17" s="119">
+        <v>0</v>
+      </c>
+      <c r="U17" s="119">
+        <v>0</v>
+      </c>
+      <c r="V17" s="119">
+        <v>0</v>
+      </c>
+      <c r="W17" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="126"/>
+      <c r="B18" s="88"/>
       <c r="C18" s="4" t="s">
         <v>30</v>
       </c>
@@ -3017,48 +3003,48 @@
       <c r="J18" s="41">
         <v>0</v>
       </c>
-      <c r="K18" s="89">
-        <v>0</v>
-      </c>
-      <c r="L18" s="89">
-        <v>0</v>
-      </c>
-      <c r="M18" s="89">
-        <v>0</v>
-      </c>
-      <c r="N18" s="89">
-        <v>0</v>
-      </c>
-      <c r="O18" s="89">
-        <v>0</v>
-      </c>
-      <c r="P18" s="46">
+      <c r="K18" s="71">
+        <v>0</v>
+      </c>
+      <c r="L18" s="71">
+        <v>0</v>
+      </c>
+      <c r="M18" s="71">
+        <v>0</v>
+      </c>
+      <c r="N18" s="71">
+        <v>0</v>
+      </c>
+      <c r="O18" s="71">
+        <v>0</v>
+      </c>
+      <c r="P18" s="119">
         <v>0.05</v>
       </c>
-      <c r="Q18" s="46">
-        <v>0</v>
-      </c>
-      <c r="R18" s="46">
-        <v>0</v>
-      </c>
-      <c r="S18" s="46">
-        <v>0</v>
-      </c>
-      <c r="T18" s="46">
-        <v>0</v>
-      </c>
-      <c r="U18" s="46">
-        <v>0</v>
-      </c>
-      <c r="V18" s="46">
-        <v>0</v>
-      </c>
-      <c r="W18" s="61">
+      <c r="Q18" s="119">
+        <v>0</v>
+      </c>
+      <c r="R18" s="119">
+        <v>0</v>
+      </c>
+      <c r="S18" s="119">
+        <v>0</v>
+      </c>
+      <c r="T18" s="119">
+        <v>0</v>
+      </c>
+      <c r="U18" s="119">
+        <v>0</v>
+      </c>
+      <c r="V18" s="119">
+        <v>0</v>
+      </c>
+      <c r="W18" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="126"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="4" t="s">
         <v>31</v>
       </c>
@@ -3082,48 +3068,48 @@
       <c r="J19" s="41">
         <v>0</v>
       </c>
-      <c r="K19" s="89">
-        <v>0</v>
-      </c>
-      <c r="L19" s="89">
-        <v>0</v>
-      </c>
-      <c r="M19" s="89">
-        <v>0</v>
-      </c>
-      <c r="N19" s="89">
-        <v>0</v>
-      </c>
-      <c r="O19" s="89">
-        <v>0</v>
-      </c>
-      <c r="P19" s="46">
+      <c r="K19" s="71">
+        <v>0</v>
+      </c>
+      <c r="L19" s="71">
+        <v>0</v>
+      </c>
+      <c r="M19" s="71">
+        <v>0</v>
+      </c>
+      <c r="N19" s="71">
+        <v>0</v>
+      </c>
+      <c r="O19" s="71">
+        <v>0</v>
+      </c>
+      <c r="P19" s="119">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="Q19" s="46">
-        <v>0</v>
-      </c>
-      <c r="R19" s="46">
-        <v>0</v>
-      </c>
-      <c r="S19" s="46">
-        <v>0</v>
-      </c>
-      <c r="T19" s="46">
-        <v>0</v>
-      </c>
-      <c r="U19" s="46">
-        <v>0</v>
-      </c>
-      <c r="V19" s="46">
-        <v>0</v>
-      </c>
-      <c r="W19" s="61">
+      <c r="Q19" s="119">
+        <v>0</v>
+      </c>
+      <c r="R19" s="119">
+        <v>0</v>
+      </c>
+      <c r="S19" s="119">
+        <v>0</v>
+      </c>
+      <c r="T19" s="119">
+        <v>0</v>
+      </c>
+      <c r="U19" s="119">
+        <v>0</v>
+      </c>
+      <c r="V19" s="119">
+        <v>0</v>
+      </c>
+      <c r="W19" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="126"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
@@ -3147,48 +3133,48 @@
       <c r="J20" s="41">
         <v>0</v>
       </c>
-      <c r="K20" s="89">
-        <v>0</v>
-      </c>
-      <c r="L20" s="89">
-        <v>0</v>
-      </c>
-      <c r="M20" s="89">
-        <v>0</v>
-      </c>
-      <c r="N20" s="89">
-        <v>0</v>
-      </c>
-      <c r="O20" s="89">
-        <v>0</v>
-      </c>
-      <c r="P20" s="46">
+      <c r="K20" s="71">
+        <v>0</v>
+      </c>
+      <c r="L20" s="71">
+        <v>0</v>
+      </c>
+      <c r="M20" s="71">
+        <v>0</v>
+      </c>
+      <c r="N20" s="71">
+        <v>0</v>
+      </c>
+      <c r="O20" s="71">
+        <v>0</v>
+      </c>
+      <c r="P20" s="119">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="Q20" s="46">
-        <v>0</v>
-      </c>
-      <c r="R20" s="46">
-        <v>0</v>
-      </c>
-      <c r="S20" s="46">
-        <v>0</v>
-      </c>
-      <c r="T20" s="46">
-        <v>0</v>
-      </c>
-      <c r="U20" s="46">
-        <v>0</v>
-      </c>
-      <c r="V20" s="46">
-        <v>0</v>
-      </c>
-      <c r="W20" s="61">
+      <c r="Q20" s="119">
+        <v>0</v>
+      </c>
+      <c r="R20" s="119">
+        <v>0</v>
+      </c>
+      <c r="S20" s="119">
+        <v>0</v>
+      </c>
+      <c r="T20" s="119">
+        <v>0</v>
+      </c>
+      <c r="U20" s="119">
+        <v>0</v>
+      </c>
+      <c r="V20" s="119">
+        <v>0</v>
+      </c>
+      <c r="W20" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="126"/>
+      <c r="B21" s="88"/>
       <c r="C21" s="4" t="s">
         <v>33</v>
       </c>
@@ -3212,48 +3198,48 @@
       <c r="J21" s="41">
         <v>0</v>
       </c>
-      <c r="K21" s="89">
-        <v>0</v>
-      </c>
-      <c r="L21" s="89">
-        <v>0</v>
-      </c>
-      <c r="M21" s="89">
-        <v>0</v>
-      </c>
-      <c r="N21" s="89">
-        <v>0</v>
-      </c>
-      <c r="O21" s="89">
-        <v>0</v>
-      </c>
-      <c r="P21" s="46">
+      <c r="K21" s="71">
+        <v>0</v>
+      </c>
+      <c r="L21" s="71">
+        <v>0</v>
+      </c>
+      <c r="M21" s="71">
+        <v>0</v>
+      </c>
+      <c r="N21" s="71">
+        <v>0</v>
+      </c>
+      <c r="O21" s="71">
+        <v>0</v>
+      </c>
+      <c r="P21" s="119">
         <v>0.05</v>
       </c>
-      <c r="Q21" s="46">
-        <v>0</v>
-      </c>
-      <c r="R21" s="46">
-        <v>0</v>
-      </c>
-      <c r="S21" s="46">
-        <v>0</v>
-      </c>
-      <c r="T21" s="46">
-        <v>0</v>
-      </c>
-      <c r="U21" s="46">
-        <v>0</v>
-      </c>
-      <c r="V21" s="46">
-        <v>0</v>
-      </c>
-      <c r="W21" s="61">
+      <c r="Q21" s="119">
+        <v>0</v>
+      </c>
+      <c r="R21" s="119">
+        <v>0</v>
+      </c>
+      <c r="S21" s="119">
+        <v>0</v>
+      </c>
+      <c r="T21" s="119">
+        <v>0</v>
+      </c>
+      <c r="U21" s="119">
+        <v>0</v>
+      </c>
+      <c r="V21" s="119">
+        <v>0</v>
+      </c>
+      <c r="W21" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="126"/>
+      <c r="B22" s="88"/>
       <c r="C22" s="4" t="s">
         <v>34</v>
       </c>
@@ -3277,48 +3263,48 @@
       <c r="J22" s="41">
         <v>0</v>
       </c>
-      <c r="K22" s="89">
-        <v>0</v>
-      </c>
-      <c r="L22" s="89">
-        <v>0</v>
-      </c>
-      <c r="M22" s="89">
-        <v>0</v>
-      </c>
-      <c r="N22" s="89">
-        <v>0</v>
-      </c>
-      <c r="O22" s="89">
-        <v>0</v>
-      </c>
-      <c r="P22" s="46">
+      <c r="K22" s="71">
+        <v>0</v>
+      </c>
+      <c r="L22" s="71">
+        <v>0</v>
+      </c>
+      <c r="M22" s="71">
+        <v>0</v>
+      </c>
+      <c r="N22" s="71">
+        <v>0</v>
+      </c>
+      <c r="O22" s="71">
+        <v>0</v>
+      </c>
+      <c r="P22" s="119">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="Q22" s="46">
-        <v>0</v>
-      </c>
-      <c r="R22" s="46">
-        <v>0</v>
-      </c>
-      <c r="S22" s="46">
-        <v>0</v>
-      </c>
-      <c r="T22" s="46">
-        <v>0</v>
-      </c>
-      <c r="U22" s="46">
-        <v>0</v>
-      </c>
-      <c r="V22" s="46">
-        <v>0</v>
-      </c>
-      <c r="W22" s="61">
+      <c r="Q22" s="119">
+        <v>0</v>
+      </c>
+      <c r="R22" s="119">
+        <v>0</v>
+      </c>
+      <c r="S22" s="119">
+        <v>0</v>
+      </c>
+      <c r="T22" s="119">
+        <v>0</v>
+      </c>
+      <c r="U22" s="119">
+        <v>0</v>
+      </c>
+      <c r="V22" s="119">
+        <v>0</v>
+      </c>
+      <c r="W22" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="126"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="4" t="s">
         <v>35</v>
       </c>
@@ -3342,48 +3328,48 @@
       <c r="J23" s="41">
         <v>0</v>
       </c>
-      <c r="K23" s="89">
-        <v>0</v>
-      </c>
-      <c r="L23" s="89">
-        <v>0</v>
-      </c>
-      <c r="M23" s="89">
-        <v>0</v>
-      </c>
-      <c r="N23" s="89">
-        <v>0</v>
-      </c>
-      <c r="O23" s="89">
-        <v>0</v>
-      </c>
-      <c r="P23" s="46">
+      <c r="K23" s="71">
+        <v>0</v>
+      </c>
+      <c r="L23" s="71">
+        <v>0</v>
+      </c>
+      <c r="M23" s="71">
+        <v>0</v>
+      </c>
+      <c r="N23" s="71">
+        <v>0</v>
+      </c>
+      <c r="O23" s="71">
+        <v>0</v>
+      </c>
+      <c r="P23" s="119">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="Q23" s="46">
-        <v>0</v>
-      </c>
-      <c r="R23" s="46">
-        <v>0</v>
-      </c>
-      <c r="S23" s="46">
-        <v>0</v>
-      </c>
-      <c r="T23" s="46">
-        <v>0</v>
-      </c>
-      <c r="U23" s="46">
-        <v>0</v>
-      </c>
-      <c r="V23" s="46">
-        <v>0</v>
-      </c>
-      <c r="W23" s="61">
+      <c r="Q23" s="119">
+        <v>0</v>
+      </c>
+      <c r="R23" s="119">
+        <v>0</v>
+      </c>
+      <c r="S23" s="119">
+        <v>0</v>
+      </c>
+      <c r="T23" s="119">
+        <v>0</v>
+      </c>
+      <c r="U23" s="119">
+        <v>0</v>
+      </c>
+      <c r="V23" s="119">
+        <v>0</v>
+      </c>
+      <c r="W23" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="126"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="4" t="s">
         <v>36</v>
       </c>
@@ -3407,48 +3393,48 @@
       <c r="J24" s="41">
         <v>0</v>
       </c>
-      <c r="K24" s="89">
-        <v>0</v>
-      </c>
-      <c r="L24" s="89">
-        <v>0</v>
-      </c>
-      <c r="M24" s="89">
-        <v>0</v>
-      </c>
-      <c r="N24" s="89">
-        <v>0</v>
-      </c>
-      <c r="O24" s="89">
-        <v>0</v>
-      </c>
-      <c r="P24" s="46">
+      <c r="K24" s="71">
+        <v>0</v>
+      </c>
+      <c r="L24" s="71">
+        <v>0</v>
+      </c>
+      <c r="M24" s="71">
+        <v>0</v>
+      </c>
+      <c r="N24" s="71">
+        <v>0</v>
+      </c>
+      <c r="O24" s="71">
+        <v>0</v>
+      </c>
+      <c r="P24" s="119">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="Q24" s="46">
-        <v>0</v>
-      </c>
-      <c r="R24" s="46">
-        <v>0</v>
-      </c>
-      <c r="S24" s="46">
-        <v>0</v>
-      </c>
-      <c r="T24" s="46">
-        <v>0</v>
-      </c>
-      <c r="U24" s="46">
-        <v>0</v>
-      </c>
-      <c r="V24" s="46">
-        <v>0</v>
-      </c>
-      <c r="W24" s="61">
+      <c r="Q24" s="119">
+        <v>0</v>
+      </c>
+      <c r="R24" s="119">
+        <v>0</v>
+      </c>
+      <c r="S24" s="119">
+        <v>0</v>
+      </c>
+      <c r="T24" s="119">
+        <v>0</v>
+      </c>
+      <c r="U24" s="119">
+        <v>0</v>
+      </c>
+      <c r="V24" s="119">
+        <v>0</v>
+      </c>
+      <c r="W24" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="126"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="4" t="s">
         <v>37</v>
       </c>
@@ -3472,48 +3458,48 @@
       <c r="J25" s="41">
         <v>0</v>
       </c>
-      <c r="K25" s="89">
-        <v>0</v>
-      </c>
-      <c r="L25" s="89">
-        <v>0</v>
-      </c>
-      <c r="M25" s="89">
-        <v>0</v>
-      </c>
-      <c r="N25" s="89">
-        <v>0</v>
-      </c>
-      <c r="O25" s="89">
-        <v>0</v>
-      </c>
-      <c r="P25" s="46">
+      <c r="K25" s="71">
+        <v>0</v>
+      </c>
+      <c r="L25" s="71">
+        <v>0</v>
+      </c>
+      <c r="M25" s="71">
+        <v>0</v>
+      </c>
+      <c r="N25" s="71">
+        <v>0</v>
+      </c>
+      <c r="O25" s="71">
+        <v>0</v>
+      </c>
+      <c r="P25" s="119">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="Q25" s="46">
-        <v>0</v>
-      </c>
-      <c r="R25" s="46">
-        <v>0</v>
-      </c>
-      <c r="S25" s="46">
-        <v>0</v>
-      </c>
-      <c r="T25" s="46">
-        <v>0</v>
-      </c>
-      <c r="U25" s="46">
-        <v>0</v>
-      </c>
-      <c r="V25" s="46">
-        <v>0</v>
-      </c>
-      <c r="W25" s="61">
+      <c r="Q25" s="119">
+        <v>0</v>
+      </c>
+      <c r="R25" s="119">
+        <v>0</v>
+      </c>
+      <c r="S25" s="119">
+        <v>0</v>
+      </c>
+      <c r="T25" s="119">
+        <v>0</v>
+      </c>
+      <c r="U25" s="119">
+        <v>0</v>
+      </c>
+      <c r="V25" s="119">
+        <v>0</v>
+      </c>
+      <c r="W25" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="126"/>
+      <c r="B26" s="88"/>
       <c r="C26" s="4" t="s">
         <v>38</v>
       </c>
@@ -3537,48 +3523,48 @@
       <c r="J26" s="41">
         <v>0</v>
       </c>
-      <c r="K26" s="89">
-        <v>0</v>
-      </c>
-      <c r="L26" s="89">
-        <v>0</v>
-      </c>
-      <c r="M26" s="89">
-        <v>0</v>
-      </c>
-      <c r="N26" s="89">
-        <v>0</v>
-      </c>
-      <c r="O26" s="89">
-        <v>0</v>
-      </c>
-      <c r="P26" s="46">
+      <c r="K26" s="71">
+        <v>0</v>
+      </c>
+      <c r="L26" s="71">
+        <v>0</v>
+      </c>
+      <c r="M26" s="71">
+        <v>0</v>
+      </c>
+      <c r="N26" s="71">
+        <v>0</v>
+      </c>
+      <c r="O26" s="71">
+        <v>0</v>
+      </c>
+      <c r="P26" s="119">
         <v>0.05</v>
       </c>
-      <c r="Q26" s="46">
-        <v>0</v>
-      </c>
-      <c r="R26" s="46">
-        <v>0</v>
-      </c>
-      <c r="S26" s="46">
-        <v>0</v>
-      </c>
-      <c r="T26" s="46">
-        <v>0</v>
-      </c>
-      <c r="U26" s="46">
-        <v>0</v>
-      </c>
-      <c r="V26" s="46">
-        <v>0</v>
-      </c>
-      <c r="W26" s="61">
+      <c r="Q26" s="119">
+        <v>0</v>
+      </c>
+      <c r="R26" s="119">
+        <v>0</v>
+      </c>
+      <c r="S26" s="119">
+        <v>0</v>
+      </c>
+      <c r="T26" s="119">
+        <v>0</v>
+      </c>
+      <c r="U26" s="119">
+        <v>0</v>
+      </c>
+      <c r="V26" s="119">
+        <v>0</v>
+      </c>
+      <c r="W26" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="126"/>
+      <c r="B27" s="88"/>
       <c r="C27" s="4" t="s">
         <v>39</v>
       </c>
@@ -3602,48 +3588,48 @@
       <c r="J27" s="41">
         <v>0</v>
       </c>
-      <c r="K27" s="89">
-        <v>0</v>
-      </c>
-      <c r="L27" s="89">
-        <v>0</v>
-      </c>
-      <c r="M27" s="89">
-        <v>0</v>
-      </c>
-      <c r="N27" s="89">
-        <v>0</v>
-      </c>
-      <c r="O27" s="89">
-        <v>0</v>
-      </c>
-      <c r="P27" s="46">
+      <c r="K27" s="71">
+        <v>0</v>
+      </c>
+      <c r="L27" s="71">
+        <v>0</v>
+      </c>
+      <c r="M27" s="71">
+        <v>0</v>
+      </c>
+      <c r="N27" s="71">
+        <v>0</v>
+      </c>
+      <c r="O27" s="71">
+        <v>0</v>
+      </c>
+      <c r="P27" s="119">
         <v>0.05</v>
       </c>
-      <c r="Q27" s="46">
-        <v>0</v>
-      </c>
-      <c r="R27" s="46">
-        <v>0</v>
-      </c>
-      <c r="S27" s="46">
-        <v>0</v>
-      </c>
-      <c r="T27" s="46">
-        <v>0</v>
-      </c>
-      <c r="U27" s="46">
-        <v>0</v>
-      </c>
-      <c r="V27" s="46">
-        <v>0</v>
-      </c>
-      <c r="W27" s="61">
+      <c r="Q27" s="119">
+        <v>0</v>
+      </c>
+      <c r="R27" s="119">
+        <v>0</v>
+      </c>
+      <c r="S27" s="119">
+        <v>0</v>
+      </c>
+      <c r="T27" s="119">
+        <v>0</v>
+      </c>
+      <c r="U27" s="119">
+        <v>0</v>
+      </c>
+      <c r="V27" s="119">
+        <v>0</v>
+      </c>
+      <c r="W27" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="126"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="4" t="s">
         <v>40</v>
       </c>
@@ -3667,48 +3653,48 @@
       <c r="J28" s="41">
         <v>0</v>
       </c>
-      <c r="K28" s="89">
-        <v>0</v>
-      </c>
-      <c r="L28" s="89">
-        <v>0</v>
-      </c>
-      <c r="M28" s="89">
-        <v>0</v>
-      </c>
-      <c r="N28" s="89">
-        <v>0</v>
-      </c>
-      <c r="O28" s="89">
-        <v>0</v>
-      </c>
-      <c r="P28" s="46">
+      <c r="K28" s="71">
+        <v>0</v>
+      </c>
+      <c r="L28" s="71">
+        <v>0</v>
+      </c>
+      <c r="M28" s="71">
+        <v>0</v>
+      </c>
+      <c r="N28" s="71">
+        <v>0</v>
+      </c>
+      <c r="O28" s="71">
+        <v>0</v>
+      </c>
+      <c r="P28" s="119">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="Q28" s="46">
-        <v>0</v>
-      </c>
-      <c r="R28" s="46">
-        <v>0</v>
-      </c>
-      <c r="S28" s="46">
-        <v>0</v>
-      </c>
-      <c r="T28" s="46">
-        <v>0</v>
-      </c>
-      <c r="U28" s="46">
-        <v>0</v>
-      </c>
-      <c r="V28" s="46">
-        <v>0</v>
-      </c>
-      <c r="W28" s="61">
+      <c r="Q28" s="119">
+        <v>0</v>
+      </c>
+      <c r="R28" s="119">
+        <v>0</v>
+      </c>
+      <c r="S28" s="119">
+        <v>0</v>
+      </c>
+      <c r="T28" s="119">
+        <v>0</v>
+      </c>
+      <c r="U28" s="119">
+        <v>0</v>
+      </c>
+      <c r="V28" s="119">
+        <v>0</v>
+      </c>
+      <c r="W28" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="126"/>
+      <c r="B29" s="88"/>
       <c r="C29" s="4" t="s">
         <v>41</v>
       </c>
@@ -3732,48 +3718,48 @@
       <c r="J29" s="41">
         <v>0</v>
       </c>
-      <c r="K29" s="89">
-        <v>0</v>
-      </c>
-      <c r="L29" s="89">
-        <v>0</v>
-      </c>
-      <c r="M29" s="89">
-        <v>0</v>
-      </c>
-      <c r="N29" s="89">
-        <v>0</v>
-      </c>
-      <c r="O29" s="89">
-        <v>0</v>
-      </c>
-      <c r="P29" s="46">
+      <c r="K29" s="71">
+        <v>0</v>
+      </c>
+      <c r="L29" s="71">
+        <v>0</v>
+      </c>
+      <c r="M29" s="71">
+        <v>0</v>
+      </c>
+      <c r="N29" s="71">
+        <v>0</v>
+      </c>
+      <c r="O29" s="71">
+        <v>0</v>
+      </c>
+      <c r="P29" s="119">
         <v>0.1</v>
       </c>
-      <c r="Q29" s="46">
-        <v>0</v>
-      </c>
-      <c r="R29" s="46">
-        <v>0</v>
-      </c>
-      <c r="S29" s="46">
-        <v>0</v>
-      </c>
-      <c r="T29" s="46">
-        <v>0</v>
-      </c>
-      <c r="U29" s="46">
-        <v>0</v>
-      </c>
-      <c r="V29" s="46">
-        <v>0</v>
-      </c>
-      <c r="W29" s="61">
+      <c r="Q29" s="119">
+        <v>0</v>
+      </c>
+      <c r="R29" s="119">
+        <v>0</v>
+      </c>
+      <c r="S29" s="119">
+        <v>0</v>
+      </c>
+      <c r="T29" s="119">
+        <v>0</v>
+      </c>
+      <c r="U29" s="119">
+        <v>0</v>
+      </c>
+      <c r="V29" s="119">
+        <v>0</v>
+      </c>
+      <c r="W29" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="126"/>
+      <c r="B30" s="88"/>
       <c r="C30" s="4" t="s">
         <v>42</v>
       </c>
@@ -3797,48 +3783,48 @@
       <c r="J30" s="41">
         <v>0</v>
       </c>
-      <c r="K30" s="89">
-        <v>0</v>
-      </c>
-      <c r="L30" s="89">
-        <v>0</v>
-      </c>
-      <c r="M30" s="89">
-        <v>0</v>
-      </c>
-      <c r="N30" s="89">
-        <v>0</v>
-      </c>
-      <c r="O30" s="89">
-        <v>0</v>
-      </c>
-      <c r="P30" s="46">
+      <c r="K30" s="71">
+        <v>0</v>
+      </c>
+      <c r="L30" s="71">
+        <v>0</v>
+      </c>
+      <c r="M30" s="71">
+        <v>0</v>
+      </c>
+      <c r="N30" s="71">
+        <v>0</v>
+      </c>
+      <c r="O30" s="71">
+        <v>0</v>
+      </c>
+      <c r="P30" s="119">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="Q30" s="46">
-        <v>0</v>
-      </c>
-      <c r="R30" s="46">
-        <v>0</v>
-      </c>
-      <c r="S30" s="46">
-        <v>0</v>
-      </c>
-      <c r="T30" s="46">
-        <v>0</v>
-      </c>
-      <c r="U30" s="46">
-        <v>0</v>
-      </c>
-      <c r="V30" s="46">
-        <v>0</v>
-      </c>
-      <c r="W30" s="61">
+      <c r="Q30" s="119">
+        <v>0</v>
+      </c>
+      <c r="R30" s="119">
+        <v>0</v>
+      </c>
+      <c r="S30" s="119">
+        <v>0</v>
+      </c>
+      <c r="T30" s="119">
+        <v>0</v>
+      </c>
+      <c r="U30" s="119">
+        <v>0</v>
+      </c>
+      <c r="V30" s="119">
+        <v>0</v>
+      </c>
+      <c r="W30" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="126"/>
+      <c r="B31" s="88"/>
       <c r="C31" s="4" t="s">
         <v>43</v>
       </c>
@@ -3862,48 +3848,48 @@
       <c r="J31" s="41">
         <v>0</v>
       </c>
-      <c r="K31" s="89">
-        <v>0</v>
-      </c>
-      <c r="L31" s="89">
-        <v>0</v>
-      </c>
-      <c r="M31" s="89">
-        <v>0</v>
-      </c>
-      <c r="N31" s="89">
-        <v>0</v>
-      </c>
-      <c r="O31" s="89">
-        <v>0</v>
-      </c>
-      <c r="P31" s="46">
+      <c r="K31" s="71">
+        <v>0</v>
+      </c>
+      <c r="L31" s="71">
+        <v>0</v>
+      </c>
+      <c r="M31" s="71">
+        <v>0</v>
+      </c>
+      <c r="N31" s="71">
+        <v>0</v>
+      </c>
+      <c r="O31" s="71">
+        <v>0</v>
+      </c>
+      <c r="P31" s="119">
         <v>0.05</v>
       </c>
-      <c r="Q31" s="46">
-        <v>0</v>
-      </c>
-      <c r="R31" s="46">
-        <v>0</v>
-      </c>
-      <c r="S31" s="46">
-        <v>0</v>
-      </c>
-      <c r="T31" s="46">
-        <v>0</v>
-      </c>
-      <c r="U31" s="46">
-        <v>0</v>
-      </c>
-      <c r="V31" s="46">
-        <v>0</v>
-      </c>
-      <c r="W31" s="61">
+      <c r="Q31" s="119">
+        <v>0</v>
+      </c>
+      <c r="R31" s="119">
+        <v>0</v>
+      </c>
+      <c r="S31" s="119">
+        <v>0</v>
+      </c>
+      <c r="T31" s="119">
+        <v>0</v>
+      </c>
+      <c r="U31" s="119">
+        <v>0</v>
+      </c>
+      <c r="V31" s="119">
+        <v>0</v>
+      </c>
+      <c r="W31" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="126"/>
+      <c r="B32" s="88"/>
       <c r="C32" s="4" t="s">
         <v>44</v>
       </c>
@@ -3927,48 +3913,48 @@
       <c r="J32" s="41">
         <v>0</v>
       </c>
-      <c r="K32" s="89">
-        <v>0</v>
-      </c>
-      <c r="L32" s="89">
-        <v>0</v>
-      </c>
-      <c r="M32" s="89">
-        <v>0</v>
-      </c>
-      <c r="N32" s="89">
-        <v>0</v>
-      </c>
-      <c r="O32" s="89">
-        <v>0</v>
-      </c>
-      <c r="P32" s="46">
+      <c r="K32" s="71">
+        <v>0</v>
+      </c>
+      <c r="L32" s="71">
+        <v>0</v>
+      </c>
+      <c r="M32" s="71">
+        <v>0</v>
+      </c>
+      <c r="N32" s="71">
+        <v>0</v>
+      </c>
+      <c r="O32" s="71">
+        <v>0</v>
+      </c>
+      <c r="P32" s="119">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="Q32" s="46">
-        <v>0</v>
-      </c>
-      <c r="R32" s="46">
-        <v>0</v>
-      </c>
-      <c r="S32" s="46">
-        <v>0</v>
-      </c>
-      <c r="T32" s="46">
-        <v>0</v>
-      </c>
-      <c r="U32" s="46">
-        <v>0</v>
-      </c>
-      <c r="V32" s="46">
-        <v>0</v>
-      </c>
-      <c r="W32" s="61">
+      <c r="Q32" s="119">
+        <v>0</v>
+      </c>
+      <c r="R32" s="119">
+        <v>0</v>
+      </c>
+      <c r="S32" s="119">
+        <v>0</v>
+      </c>
+      <c r="T32" s="119">
+        <v>0</v>
+      </c>
+      <c r="U32" s="119">
+        <v>0</v>
+      </c>
+      <c r="V32" s="119">
+        <v>0</v>
+      </c>
+      <c r="W32" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="126"/>
+      <c r="B33" s="88"/>
       <c r="C33" s="4" t="s">
         <v>45</v>
       </c>
@@ -3992,48 +3978,48 @@
       <c r="J33" s="41">
         <v>0</v>
       </c>
-      <c r="K33" s="89">
-        <v>0</v>
-      </c>
-      <c r="L33" s="89">
-        <v>0</v>
-      </c>
-      <c r="M33" s="89">
-        <v>0</v>
-      </c>
-      <c r="N33" s="89">
-        <v>0</v>
-      </c>
-      <c r="O33" s="89">
-        <v>0</v>
-      </c>
-      <c r="P33" s="46">
+      <c r="K33" s="71">
+        <v>0</v>
+      </c>
+      <c r="L33" s="71">
+        <v>0</v>
+      </c>
+      <c r="M33" s="71">
+        <v>0</v>
+      </c>
+      <c r="N33" s="71">
+        <v>0</v>
+      </c>
+      <c r="O33" s="71">
+        <v>0</v>
+      </c>
+      <c r="P33" s="119">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="Q33" s="46">
-        <v>0</v>
-      </c>
-      <c r="R33" s="46">
-        <v>0</v>
-      </c>
-      <c r="S33" s="46">
-        <v>0</v>
-      </c>
-      <c r="T33" s="46">
-        <v>0</v>
-      </c>
-      <c r="U33" s="46">
-        <v>0</v>
-      </c>
-      <c r="V33" s="46">
-        <v>0</v>
-      </c>
-      <c r="W33" s="61">
+      <c r="Q33" s="119">
+        <v>0</v>
+      </c>
+      <c r="R33" s="119">
+        <v>0</v>
+      </c>
+      <c r="S33" s="119">
+        <v>0</v>
+      </c>
+      <c r="T33" s="119">
+        <v>0</v>
+      </c>
+      <c r="U33" s="119">
+        <v>0</v>
+      </c>
+      <c r="V33" s="119">
+        <v>0</v>
+      </c>
+      <c r="W33" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="126"/>
+      <c r="B34" s="88"/>
       <c r="C34" s="4" t="s">
         <v>46</v>
       </c>
@@ -4057,48 +4043,48 @@
       <c r="J34" s="41">
         <v>0</v>
       </c>
-      <c r="K34" s="89">
-        <v>0</v>
-      </c>
-      <c r="L34" s="89">
-        <v>0</v>
-      </c>
-      <c r="M34" s="89">
-        <v>0</v>
-      </c>
-      <c r="N34" s="89">
-        <v>0</v>
-      </c>
-      <c r="O34" s="89">
-        <v>0</v>
-      </c>
-      <c r="P34" s="46">
+      <c r="K34" s="71">
+        <v>0</v>
+      </c>
+      <c r="L34" s="71">
+        <v>0</v>
+      </c>
+      <c r="M34" s="71">
+        <v>0</v>
+      </c>
+      <c r="N34" s="71">
+        <v>0</v>
+      </c>
+      <c r="O34" s="71">
+        <v>0</v>
+      </c>
+      <c r="P34" s="119">
         <v>0.05</v>
       </c>
-      <c r="Q34" s="46">
-        <v>0</v>
-      </c>
-      <c r="R34" s="46">
-        <v>0</v>
-      </c>
-      <c r="S34" s="46">
-        <v>0</v>
-      </c>
-      <c r="T34" s="46">
-        <v>0</v>
-      </c>
-      <c r="U34" s="46">
-        <v>0</v>
-      </c>
-      <c r="V34" s="46">
-        <v>0</v>
-      </c>
-      <c r="W34" s="61">
+      <c r="Q34" s="119">
+        <v>0</v>
+      </c>
+      <c r="R34" s="119">
+        <v>0</v>
+      </c>
+      <c r="S34" s="119">
+        <v>0</v>
+      </c>
+      <c r="T34" s="119">
+        <v>0</v>
+      </c>
+      <c r="U34" s="119">
+        <v>0</v>
+      </c>
+      <c r="V34" s="119">
+        <v>0</v>
+      </c>
+      <c r="W34" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="126"/>
+      <c r="B35" s="88"/>
       <c r="C35" s="4" t="s">
         <v>47</v>
       </c>
@@ -4122,48 +4108,48 @@
       <c r="J35" s="41">
         <v>0</v>
       </c>
-      <c r="K35" s="89">
-        <v>0</v>
-      </c>
-      <c r="L35" s="89">
-        <v>0</v>
-      </c>
-      <c r="M35" s="89">
-        <v>0</v>
-      </c>
-      <c r="N35" s="89">
-        <v>0</v>
-      </c>
-      <c r="O35" s="89">
-        <v>0</v>
-      </c>
-      <c r="P35" s="46">
+      <c r="K35" s="71">
+        <v>0</v>
+      </c>
+      <c r="L35" s="71">
+        <v>0</v>
+      </c>
+      <c r="M35" s="71">
+        <v>0</v>
+      </c>
+      <c r="N35" s="71">
+        <v>0</v>
+      </c>
+      <c r="O35" s="71">
+        <v>0</v>
+      </c>
+      <c r="P35" s="119">
         <v>0.05</v>
       </c>
-      <c r="Q35" s="46">
-        <v>0</v>
-      </c>
-      <c r="R35" s="46">
-        <v>0</v>
-      </c>
-      <c r="S35" s="46">
-        <v>0</v>
-      </c>
-      <c r="T35" s="46">
-        <v>0</v>
-      </c>
-      <c r="U35" s="46">
-        <v>0</v>
-      </c>
-      <c r="V35" s="46">
-        <v>0</v>
-      </c>
-      <c r="W35" s="61">
+      <c r="Q35" s="119">
+        <v>0</v>
+      </c>
+      <c r="R35" s="119">
+        <v>0</v>
+      </c>
+      <c r="S35" s="119">
+        <v>0</v>
+      </c>
+      <c r="T35" s="119">
+        <v>0</v>
+      </c>
+      <c r="U35" s="119">
+        <v>0</v>
+      </c>
+      <c r="V35" s="119">
+        <v>0</v>
+      </c>
+      <c r="W35" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="126"/>
+      <c r="B36" s="88"/>
       <c r="C36" s="4" t="s">
         <v>48</v>
       </c>
@@ -4187,48 +4173,48 @@
       <c r="J36" s="41">
         <v>0</v>
       </c>
-      <c r="K36" s="89">
-        <v>0</v>
-      </c>
-      <c r="L36" s="89">
-        <v>0</v>
-      </c>
-      <c r="M36" s="89">
-        <v>0</v>
-      </c>
-      <c r="N36" s="89">
-        <v>0</v>
-      </c>
-      <c r="O36" s="89">
-        <v>0</v>
-      </c>
-      <c r="P36" s="46">
+      <c r="K36" s="71">
+        <v>0</v>
+      </c>
+      <c r="L36" s="71">
+        <v>0</v>
+      </c>
+      <c r="M36" s="71">
+        <v>0</v>
+      </c>
+      <c r="N36" s="71">
+        <v>0</v>
+      </c>
+      <c r="O36" s="71">
+        <v>0</v>
+      </c>
+      <c r="P36" s="119">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="Q36" s="46">
-        <v>0</v>
-      </c>
-      <c r="R36" s="46">
-        <v>0</v>
-      </c>
-      <c r="S36" s="46">
-        <v>0</v>
-      </c>
-      <c r="T36" s="46">
-        <v>0</v>
-      </c>
-      <c r="U36" s="46">
-        <v>0</v>
-      </c>
-      <c r="V36" s="46">
-        <v>0</v>
-      </c>
-      <c r="W36" s="61">
+      <c r="Q36" s="119">
+        <v>0</v>
+      </c>
+      <c r="R36" s="119">
+        <v>0</v>
+      </c>
+      <c r="S36" s="119">
+        <v>0</v>
+      </c>
+      <c r="T36" s="119">
+        <v>0</v>
+      </c>
+      <c r="U36" s="119">
+        <v>0</v>
+      </c>
+      <c r="V36" s="119">
+        <v>0</v>
+      </c>
+      <c r="W36" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="126"/>
+      <c r="B37" s="88"/>
       <c r="C37" s="4" t="s">
         <v>49</v>
       </c>
@@ -4252,48 +4238,48 @@
       <c r="J37" s="41">
         <v>0</v>
       </c>
-      <c r="K37" s="89">
-        <v>0</v>
-      </c>
-      <c r="L37" s="89">
-        <v>0</v>
-      </c>
-      <c r="M37" s="89">
-        <v>0</v>
-      </c>
-      <c r="N37" s="89">
-        <v>0</v>
-      </c>
-      <c r="O37" s="89">
-        <v>0</v>
-      </c>
-      <c r="P37" s="46">
+      <c r="K37" s="71">
+        <v>0</v>
+      </c>
+      <c r="L37" s="71">
+        <v>0</v>
+      </c>
+      <c r="M37" s="71">
+        <v>0</v>
+      </c>
+      <c r="N37" s="71">
+        <v>0</v>
+      </c>
+      <c r="O37" s="71">
+        <v>0</v>
+      </c>
+      <c r="P37" s="119">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="Q37" s="46">
-        <v>0</v>
-      </c>
-      <c r="R37" s="46">
-        <v>0</v>
-      </c>
-      <c r="S37" s="46">
-        <v>0</v>
-      </c>
-      <c r="T37" s="46">
-        <v>0</v>
-      </c>
-      <c r="U37" s="46">
-        <v>0</v>
-      </c>
-      <c r="V37" s="46">
-        <v>0</v>
-      </c>
-      <c r="W37" s="61">
+      <c r="Q37" s="119">
+        <v>0</v>
+      </c>
+      <c r="R37" s="119">
+        <v>0</v>
+      </c>
+      <c r="S37" s="119">
+        <v>0</v>
+      </c>
+      <c r="T37" s="119">
+        <v>0</v>
+      </c>
+      <c r="U37" s="119">
+        <v>0</v>
+      </c>
+      <c r="V37" s="119">
+        <v>0</v>
+      </c>
+      <c r="W37" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="126"/>
+      <c r="B38" s="88"/>
       <c r="C38" s="4" t="s">
         <v>50</v>
       </c>
@@ -4317,48 +4303,48 @@
       <c r="J38" s="41">
         <v>0</v>
       </c>
-      <c r="K38" s="89">
-        <v>0</v>
-      </c>
-      <c r="L38" s="89">
-        <v>0</v>
-      </c>
-      <c r="M38" s="89">
-        <v>0</v>
-      </c>
-      <c r="N38" s="89">
-        <v>0</v>
-      </c>
-      <c r="O38" s="89">
-        <v>0</v>
-      </c>
-      <c r="P38" s="46">
+      <c r="K38" s="71">
+        <v>0</v>
+      </c>
+      <c r="L38" s="71">
+        <v>0</v>
+      </c>
+      <c r="M38" s="71">
+        <v>0</v>
+      </c>
+      <c r="N38" s="71">
+        <v>0</v>
+      </c>
+      <c r="O38" s="71">
+        <v>0</v>
+      </c>
+      <c r="P38" s="119">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="Q38" s="46">
-        <v>0</v>
-      </c>
-      <c r="R38" s="46">
-        <v>0</v>
-      </c>
-      <c r="S38" s="46">
-        <v>0</v>
-      </c>
-      <c r="T38" s="46">
-        <v>0</v>
-      </c>
-      <c r="U38" s="46">
-        <v>0</v>
-      </c>
-      <c r="V38" s="46">
-        <v>0</v>
-      </c>
-      <c r="W38" s="61">
+      <c r="Q38" s="119">
+        <v>0</v>
+      </c>
+      <c r="R38" s="119">
+        <v>0</v>
+      </c>
+      <c r="S38" s="119">
+        <v>0</v>
+      </c>
+      <c r="T38" s="119">
+        <v>0</v>
+      </c>
+      <c r="U38" s="119">
+        <v>0</v>
+      </c>
+      <c r="V38" s="119">
+        <v>0</v>
+      </c>
+      <c r="W38" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="126"/>
+      <c r="B39" s="88"/>
       <c r="C39" s="4" t="s">
         <v>51</v>
       </c>
@@ -4382,48 +4368,48 @@
       <c r="J39" s="41">
         <v>0</v>
       </c>
-      <c r="K39" s="89">
-        <v>0</v>
-      </c>
-      <c r="L39" s="89">
-        <v>0</v>
-      </c>
-      <c r="M39" s="89">
-        <v>0</v>
-      </c>
-      <c r="N39" s="89">
-        <v>0</v>
-      </c>
-      <c r="O39" s="89">
-        <v>0</v>
-      </c>
-      <c r="P39" s="46">
+      <c r="K39" s="71">
+        <v>0</v>
+      </c>
+      <c r="L39" s="71">
+        <v>0</v>
+      </c>
+      <c r="M39" s="71">
+        <v>0</v>
+      </c>
+      <c r="N39" s="71">
+        <v>0</v>
+      </c>
+      <c r="O39" s="71">
+        <v>0</v>
+      </c>
+      <c r="P39" s="119">
         <v>0.05</v>
       </c>
-      <c r="Q39" s="46">
-        <v>0</v>
-      </c>
-      <c r="R39" s="46">
-        <v>0</v>
-      </c>
-      <c r="S39" s="46">
-        <v>0</v>
-      </c>
-      <c r="T39" s="46">
-        <v>0</v>
-      </c>
-      <c r="U39" s="46">
-        <v>0</v>
-      </c>
-      <c r="V39" s="46">
-        <v>0</v>
-      </c>
-      <c r="W39" s="61">
+      <c r="Q39" s="119">
+        <v>0</v>
+      </c>
+      <c r="R39" s="119">
+        <v>0</v>
+      </c>
+      <c r="S39" s="119">
+        <v>0</v>
+      </c>
+      <c r="T39" s="119">
+        <v>0</v>
+      </c>
+      <c r="U39" s="119">
+        <v>0</v>
+      </c>
+      <c r="V39" s="119">
+        <v>0</v>
+      </c>
+      <c r="W39" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="126"/>
+      <c r="B40" s="88"/>
       <c r="C40" s="4" t="s">
         <v>52</v>
       </c>
@@ -4447,48 +4433,48 @@
       <c r="J40" s="41">
         <v>0</v>
       </c>
-      <c r="K40" s="89">
-        <v>0</v>
-      </c>
-      <c r="L40" s="89">
-        <v>0</v>
-      </c>
-      <c r="M40" s="89">
-        <v>0</v>
-      </c>
-      <c r="N40" s="89">
-        <v>0</v>
-      </c>
-      <c r="O40" s="89">
-        <v>0</v>
-      </c>
-      <c r="P40" s="46">
+      <c r="K40" s="71">
+        <v>0</v>
+      </c>
+      <c r="L40" s="71">
+        <v>0</v>
+      </c>
+      <c r="M40" s="71">
+        <v>0</v>
+      </c>
+      <c r="N40" s="71">
+        <v>0</v>
+      </c>
+      <c r="O40" s="71">
+        <v>0</v>
+      </c>
+      <c r="P40" s="119">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="Q40" s="46">
-        <v>0</v>
-      </c>
-      <c r="R40" s="46">
-        <v>0</v>
-      </c>
-      <c r="S40" s="46">
-        <v>0</v>
-      </c>
-      <c r="T40" s="46">
-        <v>0</v>
-      </c>
-      <c r="U40" s="46">
-        <v>0</v>
-      </c>
-      <c r="V40" s="46">
-        <v>0</v>
-      </c>
-      <c r="W40" s="61">
+      <c r="Q40" s="119">
+        <v>0</v>
+      </c>
+      <c r="R40" s="119">
+        <v>0</v>
+      </c>
+      <c r="S40" s="119">
+        <v>0</v>
+      </c>
+      <c r="T40" s="119">
+        <v>0</v>
+      </c>
+      <c r="U40" s="119">
+        <v>0</v>
+      </c>
+      <c r="V40" s="119">
+        <v>0</v>
+      </c>
+      <c r="W40" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="126"/>
+      <c r="B41" s="88"/>
       <c r="C41" s="4" t="s">
         <v>53</v>
       </c>
@@ -4512,48 +4498,48 @@
       <c r="J41" s="41">
         <v>0</v>
       </c>
-      <c r="K41" s="89">
-        <v>0</v>
-      </c>
-      <c r="L41" s="89">
-        <v>0</v>
-      </c>
-      <c r="M41" s="89">
-        <v>0</v>
-      </c>
-      <c r="N41" s="89">
-        <v>0</v>
-      </c>
-      <c r="O41" s="89">
-        <v>0</v>
-      </c>
-      <c r="P41" s="46">
+      <c r="K41" s="71">
+        <v>0</v>
+      </c>
+      <c r="L41" s="71">
+        <v>0</v>
+      </c>
+      <c r="M41" s="71">
+        <v>0</v>
+      </c>
+      <c r="N41" s="71">
+        <v>0</v>
+      </c>
+      <c r="O41" s="71">
+        <v>0</v>
+      </c>
+      <c r="P41" s="119">
         <v>0.05</v>
       </c>
-      <c r="Q41" s="46">
-        <v>0</v>
-      </c>
-      <c r="R41" s="46">
-        <v>0</v>
-      </c>
-      <c r="S41" s="46">
-        <v>0</v>
-      </c>
-      <c r="T41" s="46">
-        <v>0</v>
-      </c>
-      <c r="U41" s="46">
-        <v>0</v>
-      </c>
-      <c r="V41" s="46">
-        <v>0</v>
-      </c>
-      <c r="W41" s="61">
+      <c r="Q41" s="119">
+        <v>0</v>
+      </c>
+      <c r="R41" s="119">
+        <v>0</v>
+      </c>
+      <c r="S41" s="119">
+        <v>0</v>
+      </c>
+      <c r="T41" s="119">
+        <v>0</v>
+      </c>
+      <c r="U41" s="119">
+        <v>0</v>
+      </c>
+      <c r="V41" s="119">
+        <v>0</v>
+      </c>
+      <c r="W41" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="126"/>
+      <c r="B42" s="88"/>
       <c r="C42" s="4" t="s">
         <v>54</v>
       </c>
@@ -4577,48 +4563,48 @@
       <c r="J42" s="41">
         <v>0</v>
       </c>
-      <c r="K42" s="89">
-        <v>0</v>
-      </c>
-      <c r="L42" s="89">
-        <v>0</v>
-      </c>
-      <c r="M42" s="89">
-        <v>0</v>
-      </c>
-      <c r="N42" s="89">
-        <v>0</v>
-      </c>
-      <c r="O42" s="89">
-        <v>0</v>
-      </c>
-      <c r="P42" s="46">
+      <c r="K42" s="71">
+        <v>0</v>
+      </c>
+      <c r="L42" s="71">
+        <v>0</v>
+      </c>
+      <c r="M42" s="71">
+        <v>0</v>
+      </c>
+      <c r="N42" s="71">
+        <v>0</v>
+      </c>
+      <c r="O42" s="71">
+        <v>0</v>
+      </c>
+      <c r="P42" s="119">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="Q42" s="46">
-        <v>0</v>
-      </c>
-      <c r="R42" s="46">
-        <v>0</v>
-      </c>
-      <c r="S42" s="46">
-        <v>0</v>
-      </c>
-      <c r="T42" s="46">
-        <v>0</v>
-      </c>
-      <c r="U42" s="46">
-        <v>0</v>
-      </c>
-      <c r="V42" s="46">
-        <v>0</v>
-      </c>
-      <c r="W42" s="61">
+      <c r="Q42" s="119">
+        <v>0</v>
+      </c>
+      <c r="R42" s="119">
+        <v>0</v>
+      </c>
+      <c r="S42" s="119">
+        <v>0</v>
+      </c>
+      <c r="T42" s="119">
+        <v>0</v>
+      </c>
+      <c r="U42" s="119">
+        <v>0</v>
+      </c>
+      <c r="V42" s="119">
+        <v>0</v>
+      </c>
+      <c r="W42" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="126"/>
+      <c r="B43" s="88"/>
       <c r="C43" s="4" t="s">
         <v>55</v>
       </c>
@@ -4642,48 +4628,48 @@
       <c r="J43" s="41">
         <v>0</v>
       </c>
-      <c r="K43" s="89">
-        <v>0</v>
-      </c>
-      <c r="L43" s="89">
-        <v>0</v>
-      </c>
-      <c r="M43" s="89">
-        <v>0</v>
-      </c>
-      <c r="N43" s="89">
-        <v>0</v>
-      </c>
-      <c r="O43" s="89">
-        <v>0</v>
-      </c>
-      <c r="P43" s="46">
+      <c r="K43" s="71">
+        <v>0</v>
+      </c>
+      <c r="L43" s="71">
+        <v>0</v>
+      </c>
+      <c r="M43" s="71">
+        <v>0</v>
+      </c>
+      <c r="N43" s="71">
+        <v>0</v>
+      </c>
+      <c r="O43" s="71">
+        <v>0</v>
+      </c>
+      <c r="P43" s="119">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="Q43" s="46">
-        <v>0</v>
-      </c>
-      <c r="R43" s="46">
-        <v>0</v>
-      </c>
-      <c r="S43" s="46">
-        <v>0</v>
-      </c>
-      <c r="T43" s="46">
-        <v>0</v>
-      </c>
-      <c r="U43" s="46">
-        <v>0</v>
-      </c>
-      <c r="V43" s="46">
-        <v>0</v>
-      </c>
-      <c r="W43" s="61">
+      <c r="Q43" s="119">
+        <v>0</v>
+      </c>
+      <c r="R43" s="119">
+        <v>0</v>
+      </c>
+      <c r="S43" s="119">
+        <v>0</v>
+      </c>
+      <c r="T43" s="119">
+        <v>0</v>
+      </c>
+      <c r="U43" s="119">
+        <v>0</v>
+      </c>
+      <c r="V43" s="119">
+        <v>0</v>
+      </c>
+      <c r="W43" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="126"/>
+      <c r="B44" s="88"/>
       <c r="C44" s="4" t="s">
         <v>56</v>
       </c>
@@ -4707,48 +4693,48 @@
       <c r="J44" s="41">
         <v>0</v>
       </c>
-      <c r="K44" s="89">
-        <v>0</v>
-      </c>
-      <c r="L44" s="89">
-        <v>0</v>
-      </c>
-      <c r="M44" s="89">
-        <v>0</v>
-      </c>
-      <c r="N44" s="89">
-        <v>0</v>
-      </c>
-      <c r="O44" s="89">
-        <v>0</v>
-      </c>
-      <c r="P44" s="46">
+      <c r="K44" s="71">
+        <v>0</v>
+      </c>
+      <c r="L44" s="71">
+        <v>0</v>
+      </c>
+      <c r="M44" s="71">
+        <v>0</v>
+      </c>
+      <c r="N44" s="71">
+        <v>0</v>
+      </c>
+      <c r="O44" s="71">
+        <v>0</v>
+      </c>
+      <c r="P44" s="119">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="Q44" s="46">
-        <v>0</v>
-      </c>
-      <c r="R44" s="46">
-        <v>0</v>
-      </c>
-      <c r="S44" s="46">
-        <v>0</v>
-      </c>
-      <c r="T44" s="46">
-        <v>0</v>
-      </c>
-      <c r="U44" s="46">
-        <v>0</v>
-      </c>
-      <c r="V44" s="46">
-        <v>0</v>
-      </c>
-      <c r="W44" s="61">
+      <c r="Q44" s="119">
+        <v>0</v>
+      </c>
+      <c r="R44" s="119">
+        <v>0</v>
+      </c>
+      <c r="S44" s="119">
+        <v>0</v>
+      </c>
+      <c r="T44" s="119">
+        <v>0</v>
+      </c>
+      <c r="U44" s="119">
+        <v>0</v>
+      </c>
+      <c r="V44" s="119">
+        <v>0</v>
+      </c>
+      <c r="W44" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="126"/>
+      <c r="B45" s="88"/>
       <c r="C45" s="4" t="s">
         <v>57</v>
       </c>
@@ -4772,48 +4758,48 @@
       <c r="J45" s="41">
         <v>0</v>
       </c>
-      <c r="K45" s="89">
-        <v>0</v>
-      </c>
-      <c r="L45" s="89">
-        <v>0</v>
-      </c>
-      <c r="M45" s="89">
-        <v>0</v>
-      </c>
-      <c r="N45" s="89">
-        <v>0</v>
-      </c>
-      <c r="O45" s="89">
-        <v>0</v>
-      </c>
-      <c r="P45" s="46">
+      <c r="K45" s="71">
+        <v>0</v>
+      </c>
+      <c r="L45" s="71">
+        <v>0</v>
+      </c>
+      <c r="M45" s="71">
+        <v>0</v>
+      </c>
+      <c r="N45" s="71">
+        <v>0</v>
+      </c>
+      <c r="O45" s="71">
+        <v>0</v>
+      </c>
+      <c r="P45" s="119">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="Q45" s="46">
-        <v>0</v>
-      </c>
-      <c r="R45" s="46">
-        <v>0</v>
-      </c>
-      <c r="S45" s="46">
-        <v>0</v>
-      </c>
-      <c r="T45" s="46">
-        <v>0</v>
-      </c>
-      <c r="U45" s="46">
-        <v>0</v>
-      </c>
-      <c r="V45" s="46">
-        <v>0</v>
-      </c>
-      <c r="W45" s="61">
+      <c r="Q45" s="119">
+        <v>0</v>
+      </c>
+      <c r="R45" s="119">
+        <v>0</v>
+      </c>
+      <c r="S45" s="119">
+        <v>0</v>
+      </c>
+      <c r="T45" s="119">
+        <v>0</v>
+      </c>
+      <c r="U45" s="119">
+        <v>0</v>
+      </c>
+      <c r="V45" s="119">
+        <v>0</v>
+      </c>
+      <c r="W45" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="126"/>
+      <c r="B46" s="88"/>
       <c r="C46" s="4" t="s">
         <v>58</v>
       </c>
@@ -4837,48 +4823,48 @@
       <c r="J46" s="41">
         <v>0</v>
       </c>
-      <c r="K46" s="89">
-        <v>0</v>
-      </c>
-      <c r="L46" s="89">
-        <v>0</v>
-      </c>
-      <c r="M46" s="89">
-        <v>0</v>
-      </c>
-      <c r="N46" s="89">
-        <v>0</v>
-      </c>
-      <c r="O46" s="89">
-        <v>0</v>
-      </c>
-      <c r="P46" s="46">
+      <c r="K46" s="71">
+        <v>0</v>
+      </c>
+      <c r="L46" s="71">
+        <v>0</v>
+      </c>
+      <c r="M46" s="71">
+        <v>0</v>
+      </c>
+      <c r="N46" s="71">
+        <v>0</v>
+      </c>
+      <c r="O46" s="71">
+        <v>0</v>
+      </c>
+      <c r="P46" s="119">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="Q46" s="46">
-        <v>0</v>
-      </c>
-      <c r="R46" s="46">
-        <v>0</v>
-      </c>
-      <c r="S46" s="46">
-        <v>0</v>
-      </c>
-      <c r="T46" s="46">
-        <v>0</v>
-      </c>
-      <c r="U46" s="46">
-        <v>0</v>
-      </c>
-      <c r="V46" s="46">
-        <v>0</v>
-      </c>
-      <c r="W46" s="61">
+      <c r="Q46" s="119">
+        <v>0</v>
+      </c>
+      <c r="R46" s="119">
+        <v>0</v>
+      </c>
+      <c r="S46" s="119">
+        <v>0</v>
+      </c>
+      <c r="T46" s="119">
+        <v>0</v>
+      </c>
+      <c r="U46" s="119">
+        <v>0</v>
+      </c>
+      <c r="V46" s="119">
+        <v>0</v>
+      </c>
+      <c r="W46" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="126"/>
+      <c r="B47" s="88"/>
       <c r="C47" s="4" t="s">
         <v>59</v>
       </c>
@@ -4902,48 +4888,48 @@
       <c r="J47" s="41">
         <v>0</v>
       </c>
-      <c r="K47" s="89">
-        <v>0</v>
-      </c>
-      <c r="L47" s="89">
-        <v>0</v>
-      </c>
-      <c r="M47" s="89">
-        <v>0</v>
-      </c>
-      <c r="N47" s="89">
-        <v>0</v>
-      </c>
-      <c r="O47" s="89">
-        <v>0</v>
-      </c>
-      <c r="P47" s="46">
+      <c r="K47" s="71">
+        <v>0</v>
+      </c>
+      <c r="L47" s="71">
+        <v>0</v>
+      </c>
+      <c r="M47" s="71">
+        <v>0</v>
+      </c>
+      <c r="N47" s="71">
+        <v>0</v>
+      </c>
+      <c r="O47" s="71">
+        <v>0</v>
+      </c>
+      <c r="P47" s="119">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="Q47" s="46">
-        <v>0</v>
-      </c>
-      <c r="R47" s="46">
-        <v>0</v>
-      </c>
-      <c r="S47" s="46">
-        <v>0</v>
-      </c>
-      <c r="T47" s="46">
-        <v>0</v>
-      </c>
-      <c r="U47" s="46">
-        <v>0</v>
-      </c>
-      <c r="V47" s="46">
-        <v>0</v>
-      </c>
-      <c r="W47" s="61">
+      <c r="Q47" s="119">
+        <v>0</v>
+      </c>
+      <c r="R47" s="119">
+        <v>0</v>
+      </c>
+      <c r="S47" s="119">
+        <v>0</v>
+      </c>
+      <c r="T47" s="119">
+        <v>0</v>
+      </c>
+      <c r="U47" s="119">
+        <v>0</v>
+      </c>
+      <c r="V47" s="119">
+        <v>0</v>
+      </c>
+      <c r="W47" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="126"/>
+      <c r="B48" s="88"/>
       <c r="C48" s="4" t="s">
         <v>60</v>
       </c>
@@ -4967,48 +4953,48 @@
       <c r="J48" s="41">
         <v>0</v>
       </c>
-      <c r="K48" s="89">
-        <v>0</v>
-      </c>
-      <c r="L48" s="89">
-        <v>0</v>
-      </c>
-      <c r="M48" s="89">
-        <v>0</v>
-      </c>
-      <c r="N48" s="89">
-        <v>0</v>
-      </c>
-      <c r="O48" s="89">
-        <v>0</v>
-      </c>
-      <c r="P48" s="83">
+      <c r="K48" s="71">
+        <v>0</v>
+      </c>
+      <c r="L48" s="71">
+        <v>0</v>
+      </c>
+      <c r="M48" s="71">
+        <v>0</v>
+      </c>
+      <c r="N48" s="71">
+        <v>0</v>
+      </c>
+      <c r="O48" s="71">
+        <v>0</v>
+      </c>
+      <c r="P48" s="122">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="Q48" s="83">
+      <c r="Q48" s="122">
         <v>0.5</v>
       </c>
-      <c r="R48" s="46">
+      <c r="R48" s="119">
         <v>0.1</v>
       </c>
-      <c r="S48" s="46">
-        <v>0</v>
-      </c>
-      <c r="T48" s="46">
-        <v>0</v>
-      </c>
-      <c r="U48" s="46">
-        <v>0</v>
-      </c>
-      <c r="V48" s="46">
-        <v>0</v>
-      </c>
-      <c r="W48" s="61">
+      <c r="S48" s="119">
+        <v>0</v>
+      </c>
+      <c r="T48" s="119">
+        <v>0</v>
+      </c>
+      <c r="U48" s="119">
+        <v>0</v>
+      </c>
+      <c r="V48" s="119">
+        <v>0</v>
+      </c>
+      <c r="W48" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="126"/>
+      <c r="B49" s="88"/>
       <c r="C49" s="16" t="s">
         <v>61</v>
       </c>
@@ -5032,48 +5018,48 @@
       <c r="J49" s="41">
         <v>0</v>
       </c>
-      <c r="K49" s="89">
-        <v>0</v>
-      </c>
-      <c r="L49" s="89">
-        <v>0</v>
-      </c>
-      <c r="M49" s="89">
-        <v>0</v>
-      </c>
-      <c r="N49" s="89">
-        <v>0</v>
-      </c>
-      <c r="O49" s="89">
-        <v>0</v>
-      </c>
-      <c r="P49" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="57">
+      <c r="K49" s="71">
+        <v>0</v>
+      </c>
+      <c r="L49" s="71">
+        <v>0</v>
+      </c>
+      <c r="M49" s="71">
+        <v>0</v>
+      </c>
+      <c r="N49" s="71">
+        <v>0</v>
+      </c>
+      <c r="O49" s="71">
+        <v>0</v>
+      </c>
+      <c r="P49" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="119">
         <v>1</v>
       </c>
-      <c r="R49" s="46">
-        <v>0</v>
-      </c>
-      <c r="S49" s="46">
-        <v>0</v>
-      </c>
-      <c r="T49" s="46">
-        <v>0</v>
-      </c>
-      <c r="U49" s="46">
-        <v>0</v>
-      </c>
-      <c r="V49" s="46">
-        <v>0</v>
-      </c>
-      <c r="W49" s="61">
+      <c r="R49" s="119">
+        <v>0</v>
+      </c>
+      <c r="S49" s="119">
+        <v>0</v>
+      </c>
+      <c r="T49" s="119">
+        <v>0</v>
+      </c>
+      <c r="U49" s="119">
+        <v>0</v>
+      </c>
+      <c r="V49" s="119">
+        <v>0</v>
+      </c>
+      <c r="W49" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="126"/>
+      <c r="B50" s="88"/>
       <c r="C50" s="16" t="s">
         <v>72</v>
       </c>
@@ -5097,44 +5083,44 @@
       <c r="J50" s="41">
         <v>0</v>
       </c>
-      <c r="K50" s="89">
-        <v>0</v>
-      </c>
-      <c r="L50" s="89">
-        <v>0</v>
-      </c>
-      <c r="M50" s="89">
-        <v>0</v>
-      </c>
-      <c r="N50" s="89">
-        <v>0</v>
-      </c>
-      <c r="O50" s="89">
-        <v>0</v>
-      </c>
-      <c r="P50" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="89">
-        <v>0</v>
-      </c>
-      <c r="R50" s="89">
-        <v>0</v>
-      </c>
-      <c r="S50" s="89">
-        <v>0</v>
-      </c>
-      <c r="T50" s="89">
-        <v>0</v>
-      </c>
-      <c r="U50" s="46">
+      <c r="K50" s="71">
+        <v>0</v>
+      </c>
+      <c r="L50" s="71">
+        <v>0</v>
+      </c>
+      <c r="M50" s="71">
+        <v>0</v>
+      </c>
+      <c r="N50" s="71">
+        <v>0</v>
+      </c>
+      <c r="O50" s="71">
+        <v>0</v>
+      </c>
+      <c r="P50" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="71">
+        <v>0</v>
+      </c>
+      <c r="R50" s="71">
+        <v>0</v>
+      </c>
+      <c r="S50" s="71">
+        <v>0</v>
+      </c>
+      <c r="T50" s="71">
+        <v>0</v>
+      </c>
+      <c r="U50" s="119">
         <v>0.78</v>
       </c>
-      <c r="V50" s="46"/>
-      <c r="W50" s="61"/>
+      <c r="V50" s="119"/>
+      <c r="W50" s="123"/>
     </row>
     <row r="51" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="126"/>
+      <c r="B51" s="88"/>
       <c r="C51" s="16" t="s">
         <v>73</v>
       </c>
@@ -5158,44 +5144,44 @@
       <c r="J51" s="41">
         <v>0</v>
       </c>
-      <c r="K51" s="89">
-        <v>0</v>
-      </c>
-      <c r="L51" s="89">
-        <v>0</v>
-      </c>
-      <c r="M51" s="89">
-        <v>0</v>
-      </c>
-      <c r="N51" s="89">
-        <v>0</v>
-      </c>
-      <c r="O51" s="89">
-        <v>0</v>
-      </c>
-      <c r="P51" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="89">
-        <v>0</v>
-      </c>
-      <c r="R51" s="89">
-        <v>0</v>
-      </c>
-      <c r="S51" s="89">
-        <v>0</v>
-      </c>
-      <c r="T51" s="89">
-        <v>0</v>
-      </c>
-      <c r="U51" s="46">
+      <c r="K51" s="71">
+        <v>0</v>
+      </c>
+      <c r="L51" s="71">
+        <v>0</v>
+      </c>
+      <c r="M51" s="71">
+        <v>0</v>
+      </c>
+      <c r="N51" s="71">
+        <v>0</v>
+      </c>
+      <c r="O51" s="71">
+        <v>0</v>
+      </c>
+      <c r="P51" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="71">
+        <v>0</v>
+      </c>
+      <c r="R51" s="71">
+        <v>0</v>
+      </c>
+      <c r="S51" s="71">
+        <v>0</v>
+      </c>
+      <c r="T51" s="71">
+        <v>0</v>
+      </c>
+      <c r="U51" s="119">
         <v>0.1</v>
       </c>
-      <c r="V51" s="46"/>
-      <c r="W51" s="61"/>
+      <c r="V51" s="119"/>
+      <c r="W51" s="123"/>
     </row>
     <row r="52" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="126"/>
+      <c r="B52" s="88"/>
       <c r="C52" s="16" t="s">
         <v>74</v>
       </c>
@@ -5219,44 +5205,44 @@
       <c r="J52" s="41">
         <v>0</v>
       </c>
-      <c r="K52" s="89">
-        <v>0</v>
-      </c>
-      <c r="L52" s="89">
-        <v>0</v>
-      </c>
-      <c r="M52" s="89">
-        <v>0</v>
-      </c>
-      <c r="N52" s="89">
-        <v>0</v>
-      </c>
-      <c r="O52" s="89">
-        <v>0</v>
-      </c>
-      <c r="P52" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="89">
-        <v>0</v>
-      </c>
-      <c r="R52" s="89">
-        <v>0</v>
-      </c>
-      <c r="S52" s="89">
-        <v>0</v>
-      </c>
-      <c r="T52" s="89">
-        <v>0</v>
-      </c>
-      <c r="U52" s="46">
+      <c r="K52" s="71">
+        <v>0</v>
+      </c>
+      <c r="L52" s="71">
+        <v>0</v>
+      </c>
+      <c r="M52" s="71">
+        <v>0</v>
+      </c>
+      <c r="N52" s="71">
+        <v>0</v>
+      </c>
+      <c r="O52" s="71">
+        <v>0</v>
+      </c>
+      <c r="P52" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="71">
+        <v>0</v>
+      </c>
+      <c r="R52" s="71">
+        <v>0</v>
+      </c>
+      <c r="S52" s="71">
+        <v>0</v>
+      </c>
+      <c r="T52" s="71">
+        <v>0</v>
+      </c>
+      <c r="U52" s="119">
         <v>0.1</v>
       </c>
-      <c r="V52" s="46"/>
-      <c r="W52" s="61"/>
+      <c r="V52" s="119"/>
+      <c r="W52" s="123"/>
     </row>
     <row r="53" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="126"/>
+      <c r="B53" s="88"/>
       <c r="C53" s="16" t="s">
         <v>75</v>
       </c>
@@ -5280,44 +5266,44 @@
       <c r="J53" s="41">
         <v>0</v>
       </c>
-      <c r="K53" s="89">
-        <v>0</v>
-      </c>
-      <c r="L53" s="89">
-        <v>0</v>
-      </c>
-      <c r="M53" s="89">
-        <v>0</v>
-      </c>
-      <c r="N53" s="89">
-        <v>0</v>
-      </c>
-      <c r="O53" s="89">
-        <v>0</v>
-      </c>
-      <c r="P53" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="89">
-        <v>0</v>
-      </c>
-      <c r="R53" s="89">
-        <v>0</v>
-      </c>
-      <c r="S53" s="89">
-        <v>0</v>
-      </c>
-      <c r="T53" s="89">
-        <v>0</v>
-      </c>
-      <c r="U53" s="46">
+      <c r="K53" s="71">
+        <v>0</v>
+      </c>
+      <c r="L53" s="71">
+        <v>0</v>
+      </c>
+      <c r="M53" s="71">
+        <v>0</v>
+      </c>
+      <c r="N53" s="71">
+        <v>0</v>
+      </c>
+      <c r="O53" s="71">
+        <v>0</v>
+      </c>
+      <c r="P53" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="71">
+        <v>0</v>
+      </c>
+      <c r="R53" s="71">
+        <v>0</v>
+      </c>
+      <c r="S53" s="71">
+        <v>0</v>
+      </c>
+      <c r="T53" s="71">
+        <v>0</v>
+      </c>
+      <c r="U53" s="119">
         <v>0.1</v>
       </c>
-      <c r="V53" s="46"/>
-      <c r="W53" s="61"/>
+      <c r="V53" s="119"/>
+      <c r="W53" s="123"/>
     </row>
     <row r="54" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="126"/>
+      <c r="B54" s="88"/>
       <c r="C54" s="16" t="s">
         <v>76</v>
       </c>
@@ -5341,44 +5327,44 @@
       <c r="J54" s="41">
         <v>0</v>
       </c>
-      <c r="K54" s="89">
-        <v>0</v>
-      </c>
-      <c r="L54" s="89">
-        <v>0</v>
-      </c>
-      <c r="M54" s="89">
-        <v>0</v>
-      </c>
-      <c r="N54" s="89">
-        <v>0</v>
-      </c>
-      <c r="O54" s="89">
-        <v>0</v>
-      </c>
-      <c r="P54" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="89">
-        <v>0</v>
-      </c>
-      <c r="R54" s="89">
-        <v>0</v>
-      </c>
-      <c r="S54" s="89">
-        <v>0</v>
-      </c>
-      <c r="T54" s="89">
-        <v>0</v>
-      </c>
-      <c r="U54" s="46">
+      <c r="K54" s="71">
+        <v>0</v>
+      </c>
+      <c r="L54" s="71">
+        <v>0</v>
+      </c>
+      <c r="M54" s="71">
+        <v>0</v>
+      </c>
+      <c r="N54" s="71">
+        <v>0</v>
+      </c>
+      <c r="O54" s="71">
+        <v>0</v>
+      </c>
+      <c r="P54" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="71">
+        <v>0</v>
+      </c>
+      <c r="R54" s="71">
+        <v>0</v>
+      </c>
+      <c r="S54" s="71">
+        <v>0</v>
+      </c>
+      <c r="T54" s="71">
+        <v>0</v>
+      </c>
+      <c r="U54" s="119">
         <v>0.13</v>
       </c>
-      <c r="V54" s="46"/>
-      <c r="W54" s="61"/>
+      <c r="V54" s="119"/>
+      <c r="W54" s="123"/>
     </row>
     <row r="55" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="126"/>
+      <c r="B55" s="88"/>
       <c r="C55" s="16" t="s">
         <v>77</v>
       </c>
@@ -5402,46 +5388,46 @@
       <c r="J55" s="41">
         <v>0</v>
       </c>
-      <c r="K55" s="89">
-        <v>0</v>
-      </c>
-      <c r="L55" s="89">
-        <v>0</v>
-      </c>
-      <c r="M55" s="89">
-        <v>0</v>
-      </c>
-      <c r="N55" s="89">
-        <v>0</v>
-      </c>
-      <c r="O55" s="89">
-        <v>0</v>
-      </c>
-      <c r="P55" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="89">
-        <v>0</v>
-      </c>
-      <c r="R55" s="89">
-        <v>0</v>
-      </c>
-      <c r="S55" s="89">
-        <v>0</v>
-      </c>
-      <c r="T55" s="89">
-        <v>0</v>
-      </c>
-      <c r="U55" s="89">
-        <v>0</v>
-      </c>
-      <c r="V55" s="46">
+      <c r="K55" s="71">
+        <v>0</v>
+      </c>
+      <c r="L55" s="71">
+        <v>0</v>
+      </c>
+      <c r="M55" s="71">
+        <v>0</v>
+      </c>
+      <c r="N55" s="71">
+        <v>0</v>
+      </c>
+      <c r="O55" s="71">
+        <v>0</v>
+      </c>
+      <c r="P55" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="71">
+        <v>0</v>
+      </c>
+      <c r="R55" s="71">
+        <v>0</v>
+      </c>
+      <c r="S55" s="71">
+        <v>0</v>
+      </c>
+      <c r="T55" s="71">
+        <v>0</v>
+      </c>
+      <c r="U55" s="71">
+        <v>0</v>
+      </c>
+      <c r="V55" s="119">
         <v>0.1</v>
       </c>
-      <c r="W55" s="61"/>
+      <c r="W55" s="123"/>
     </row>
     <row r="56" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="126"/>
+      <c r="B56" s="88"/>
       <c r="C56" s="16" t="s">
         <v>78</v>
       </c>
@@ -5465,46 +5451,46 @@
       <c r="J56" s="41">
         <v>0</v>
       </c>
-      <c r="K56" s="89">
-        <v>0</v>
-      </c>
-      <c r="L56" s="89">
-        <v>0</v>
-      </c>
-      <c r="M56" s="89">
-        <v>0</v>
-      </c>
-      <c r="N56" s="89">
-        <v>0</v>
-      </c>
-      <c r="O56" s="89">
-        <v>0</v>
-      </c>
-      <c r="P56" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="89">
-        <v>0</v>
-      </c>
-      <c r="R56" s="89">
-        <v>0</v>
-      </c>
-      <c r="S56" s="89">
-        <v>0</v>
-      </c>
-      <c r="T56" s="89">
-        <v>0</v>
-      </c>
-      <c r="U56" s="89">
-        <v>0</v>
-      </c>
-      <c r="V56" s="46">
+      <c r="K56" s="71">
+        <v>0</v>
+      </c>
+      <c r="L56" s="71">
+        <v>0</v>
+      </c>
+      <c r="M56" s="71">
+        <v>0</v>
+      </c>
+      <c r="N56" s="71">
+        <v>0</v>
+      </c>
+      <c r="O56" s="71">
+        <v>0</v>
+      </c>
+      <c r="P56" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="71">
+        <v>0</v>
+      </c>
+      <c r="R56" s="71">
+        <v>0</v>
+      </c>
+      <c r="S56" s="71">
+        <v>0</v>
+      </c>
+      <c r="T56" s="71">
+        <v>0</v>
+      </c>
+      <c r="U56" s="71">
+        <v>0</v>
+      </c>
+      <c r="V56" s="119">
         <v>0.05</v>
       </c>
-      <c r="W56" s="61"/>
+      <c r="W56" s="123"/>
     </row>
     <row r="57" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="126"/>
+      <c r="B57" s="88"/>
       <c r="C57" s="16" t="s">
         <v>79</v>
       </c>
@@ -5528,46 +5514,46 @@
       <c r="J57" s="41">
         <v>0</v>
       </c>
-      <c r="K57" s="89">
-        <v>0</v>
-      </c>
-      <c r="L57" s="89">
-        <v>0</v>
-      </c>
-      <c r="M57" s="89">
-        <v>0</v>
-      </c>
-      <c r="N57" s="89">
-        <v>0</v>
-      </c>
-      <c r="O57" s="89">
-        <v>0</v>
-      </c>
-      <c r="P57" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="89">
-        <v>0</v>
-      </c>
-      <c r="R57" s="89">
-        <v>0</v>
-      </c>
-      <c r="S57" s="89">
-        <v>0</v>
-      </c>
-      <c r="T57" s="89">
-        <v>0</v>
-      </c>
-      <c r="U57" s="89">
-        <v>0</v>
-      </c>
-      <c r="V57" s="46">
+      <c r="K57" s="71">
+        <v>0</v>
+      </c>
+      <c r="L57" s="71">
+        <v>0</v>
+      </c>
+      <c r="M57" s="71">
+        <v>0</v>
+      </c>
+      <c r="N57" s="71">
+        <v>0</v>
+      </c>
+      <c r="O57" s="71">
+        <v>0</v>
+      </c>
+      <c r="P57" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="71">
+        <v>0</v>
+      </c>
+      <c r="R57" s="71">
+        <v>0</v>
+      </c>
+      <c r="S57" s="71">
+        <v>0</v>
+      </c>
+      <c r="T57" s="71">
+        <v>0</v>
+      </c>
+      <c r="U57" s="71">
+        <v>0</v>
+      </c>
+      <c r="V57" s="119">
         <v>0.08</v>
       </c>
-      <c r="W57" s="61"/>
+      <c r="W57" s="123"/>
     </row>
     <row r="58" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="126"/>
+      <c r="B58" s="88"/>
       <c r="C58" s="16" t="s">
         <v>80</v>
       </c>
@@ -5591,46 +5577,46 @@
       <c r="J58" s="41">
         <v>0</v>
       </c>
-      <c r="K58" s="89">
-        <v>0</v>
-      </c>
-      <c r="L58" s="89">
-        <v>0</v>
-      </c>
-      <c r="M58" s="89">
-        <v>0</v>
-      </c>
-      <c r="N58" s="89">
-        <v>0</v>
-      </c>
-      <c r="O58" s="89">
-        <v>0</v>
-      </c>
-      <c r="P58" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="89">
-        <v>0</v>
-      </c>
-      <c r="R58" s="89">
-        <v>0</v>
-      </c>
-      <c r="S58" s="89">
-        <v>0</v>
-      </c>
-      <c r="T58" s="89">
-        <v>0</v>
-      </c>
-      <c r="U58" s="89">
-        <v>0</v>
-      </c>
-      <c r="V58" s="46">
+      <c r="K58" s="71">
+        <v>0</v>
+      </c>
+      <c r="L58" s="71">
+        <v>0</v>
+      </c>
+      <c r="M58" s="71">
+        <v>0</v>
+      </c>
+      <c r="N58" s="71">
+        <v>0</v>
+      </c>
+      <c r="O58" s="71">
+        <v>0</v>
+      </c>
+      <c r="P58" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="71">
+        <v>0</v>
+      </c>
+      <c r="R58" s="71">
+        <v>0</v>
+      </c>
+      <c r="S58" s="71">
+        <v>0</v>
+      </c>
+      <c r="T58" s="71">
+        <v>0</v>
+      </c>
+      <c r="U58" s="71">
+        <v>0</v>
+      </c>
+      <c r="V58" s="119">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="W58" s="61"/>
+      <c r="W58" s="123"/>
     </row>
     <row r="59" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="126"/>
+      <c r="B59" s="88"/>
       <c r="C59" s="16" t="s">
         <v>81</v>
       </c>
@@ -5654,46 +5640,46 @@
       <c r="J59" s="41">
         <v>0</v>
       </c>
-      <c r="K59" s="89">
-        <v>0</v>
-      </c>
-      <c r="L59" s="89">
-        <v>0</v>
-      </c>
-      <c r="M59" s="89">
-        <v>0</v>
-      </c>
-      <c r="N59" s="89">
-        <v>0</v>
-      </c>
-      <c r="O59" s="89">
-        <v>0</v>
-      </c>
-      <c r="P59" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="89">
-        <v>0</v>
-      </c>
-      <c r="R59" s="89">
-        <v>0</v>
-      </c>
-      <c r="S59" s="89">
-        <v>0</v>
-      </c>
-      <c r="T59" s="89">
-        <v>0</v>
-      </c>
-      <c r="U59" s="89">
-        <v>0</v>
-      </c>
-      <c r="V59" s="46">
+      <c r="K59" s="71">
+        <v>0</v>
+      </c>
+      <c r="L59" s="71">
+        <v>0</v>
+      </c>
+      <c r="M59" s="71">
+        <v>0</v>
+      </c>
+      <c r="N59" s="71">
+        <v>0</v>
+      </c>
+      <c r="O59" s="71">
+        <v>0</v>
+      </c>
+      <c r="P59" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="71">
+        <v>0</v>
+      </c>
+      <c r="R59" s="71">
+        <v>0</v>
+      </c>
+      <c r="S59" s="71">
+        <v>0</v>
+      </c>
+      <c r="T59" s="71">
+        <v>0</v>
+      </c>
+      <c r="U59" s="71">
+        <v>0</v>
+      </c>
+      <c r="V59" s="119">
         <v>0.08</v>
       </c>
-      <c r="W59" s="61"/>
+      <c r="W59" s="123"/>
     </row>
     <row r="60" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="126"/>
+      <c r="B60" s="88"/>
       <c r="C60" s="16" t="s">
         <v>82</v>
       </c>
@@ -5717,46 +5703,46 @@
       <c r="J60" s="41">
         <v>0</v>
       </c>
-      <c r="K60" s="89">
-        <v>0</v>
-      </c>
-      <c r="L60" s="89">
-        <v>0</v>
-      </c>
-      <c r="M60" s="89">
-        <v>0</v>
-      </c>
-      <c r="N60" s="89">
-        <v>0</v>
-      </c>
-      <c r="O60" s="89">
-        <v>0</v>
-      </c>
-      <c r="P60" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="89">
-        <v>0</v>
-      </c>
-      <c r="R60" s="89">
-        <v>0</v>
-      </c>
-      <c r="S60" s="89">
-        <v>0</v>
-      </c>
-      <c r="T60" s="89">
-        <v>0</v>
-      </c>
-      <c r="U60" s="89">
-        <v>0</v>
-      </c>
-      <c r="V60" s="46">
+      <c r="K60" s="71">
+        <v>0</v>
+      </c>
+      <c r="L60" s="71">
+        <v>0</v>
+      </c>
+      <c r="M60" s="71">
+        <v>0</v>
+      </c>
+      <c r="N60" s="71">
+        <v>0</v>
+      </c>
+      <c r="O60" s="71">
+        <v>0</v>
+      </c>
+      <c r="P60" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="71">
+        <v>0</v>
+      </c>
+      <c r="R60" s="71">
+        <v>0</v>
+      </c>
+      <c r="S60" s="71">
+        <v>0</v>
+      </c>
+      <c r="T60" s="71">
+        <v>0</v>
+      </c>
+      <c r="U60" s="71">
+        <v>0</v>
+      </c>
+      <c r="V60" s="119">
         <v>0.08</v>
       </c>
-      <c r="W60" s="61"/>
+      <c r="W60" s="123"/>
     </row>
     <row r="61" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="126"/>
+      <c r="B61" s="88"/>
       <c r="C61" s="16" t="s">
         <v>83</v>
       </c>
@@ -5780,46 +5766,46 @@
       <c r="J61" s="41">
         <v>0</v>
       </c>
-      <c r="K61" s="89">
-        <v>0</v>
-      </c>
-      <c r="L61" s="89">
-        <v>0</v>
-      </c>
-      <c r="M61" s="89">
-        <v>0</v>
-      </c>
-      <c r="N61" s="89">
-        <v>0</v>
-      </c>
-      <c r="O61" s="89">
-        <v>0</v>
-      </c>
-      <c r="P61" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="89">
-        <v>0</v>
-      </c>
-      <c r="R61" s="89">
-        <v>0</v>
-      </c>
-      <c r="S61" s="89">
-        <v>0</v>
-      </c>
-      <c r="T61" s="89">
-        <v>0</v>
-      </c>
-      <c r="U61" s="89">
-        <v>0</v>
-      </c>
-      <c r="V61" s="46">
+      <c r="K61" s="71">
+        <v>0</v>
+      </c>
+      <c r="L61" s="71">
+        <v>0</v>
+      </c>
+      <c r="M61" s="71">
+        <v>0</v>
+      </c>
+      <c r="N61" s="71">
+        <v>0</v>
+      </c>
+      <c r="O61" s="71">
+        <v>0</v>
+      </c>
+      <c r="P61" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="71">
+        <v>0</v>
+      </c>
+      <c r="R61" s="71">
+        <v>0</v>
+      </c>
+      <c r="S61" s="71">
+        <v>0</v>
+      </c>
+      <c r="T61" s="71">
+        <v>0</v>
+      </c>
+      <c r="U61" s="71">
+        <v>0</v>
+      </c>
+      <c r="V61" s="119">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="W61" s="61"/>
+      <c r="W61" s="123"/>
     </row>
     <row r="62" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="126"/>
+      <c r="B62" s="88"/>
       <c r="C62" s="16" t="s">
         <v>84</v>
       </c>
@@ -5843,46 +5829,46 @@
       <c r="J62" s="41">
         <v>0</v>
       </c>
-      <c r="K62" s="89">
-        <v>0</v>
-      </c>
-      <c r="L62" s="89">
-        <v>0</v>
-      </c>
-      <c r="M62" s="89">
-        <v>0</v>
-      </c>
-      <c r="N62" s="89">
-        <v>0</v>
-      </c>
-      <c r="O62" s="89">
-        <v>0</v>
-      </c>
-      <c r="P62" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="89">
-        <v>0</v>
-      </c>
-      <c r="R62" s="89">
-        <v>0</v>
-      </c>
-      <c r="S62" s="89">
-        <v>0</v>
-      </c>
-      <c r="T62" s="89">
-        <v>0</v>
-      </c>
-      <c r="U62" s="89">
-        <v>0</v>
-      </c>
-      <c r="V62" s="46">
+      <c r="K62" s="71">
+        <v>0</v>
+      </c>
+      <c r="L62" s="71">
+        <v>0</v>
+      </c>
+      <c r="M62" s="71">
+        <v>0</v>
+      </c>
+      <c r="N62" s="71">
+        <v>0</v>
+      </c>
+      <c r="O62" s="71">
+        <v>0</v>
+      </c>
+      <c r="P62" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="71">
+        <v>0</v>
+      </c>
+      <c r="R62" s="71">
+        <v>0</v>
+      </c>
+      <c r="S62" s="71">
+        <v>0</v>
+      </c>
+      <c r="T62" s="71">
+        <v>0</v>
+      </c>
+      <c r="U62" s="71">
+        <v>0</v>
+      </c>
+      <c r="V62" s="119">
         <v>0.08</v>
       </c>
-      <c r="W62" s="61"/>
+      <c r="W62" s="123"/>
     </row>
     <row r="63" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="127"/>
+      <c r="B63" s="89"/>
       <c r="C63" s="29" t="s">
         <v>85</v>
       </c>
@@ -5903,49 +5889,49 @@
         <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
-      <c r="J63" s="88">
-        <v>0</v>
-      </c>
-      <c r="K63" s="93">
-        <v>0</v>
-      </c>
-      <c r="L63" s="93">
-        <v>0</v>
-      </c>
-      <c r="M63" s="93">
-        <v>0</v>
-      </c>
-      <c r="N63" s="93">
-        <v>0</v>
-      </c>
-      <c r="O63" s="93">
-        <v>0</v>
-      </c>
-      <c r="P63" s="93">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="93">
-        <v>0</v>
-      </c>
-      <c r="R63" s="93">
-        <v>0</v>
-      </c>
-      <c r="S63" s="93">
-        <v>0</v>
-      </c>
-      <c r="T63" s="93">
-        <v>0</v>
-      </c>
-      <c r="U63" s="93">
-        <v>0</v>
-      </c>
-      <c r="V63" s="99">
+      <c r="J63" s="70">
+        <v>0</v>
+      </c>
+      <c r="K63" s="74">
+        <v>0</v>
+      </c>
+      <c r="L63" s="74">
+        <v>0</v>
+      </c>
+      <c r="M63" s="74">
+        <v>0</v>
+      </c>
+      <c r="N63" s="74">
+        <v>0</v>
+      </c>
+      <c r="O63" s="74">
+        <v>0</v>
+      </c>
+      <c r="P63" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="74">
+        <v>0</v>
+      </c>
+      <c r="R63" s="74">
+        <v>0</v>
+      </c>
+      <c r="S63" s="74">
+        <v>0</v>
+      </c>
+      <c r="T63" s="74">
+        <v>0</v>
+      </c>
+      <c r="U63" s="74">
+        <v>0</v>
+      </c>
+      <c r="V63" s="75">
         <v>0.3</v>
       </c>
-      <c r="W63" s="109"/>
+      <c r="W63" s="76"/>
     </row>
     <row r="64" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="128" t="s">
+      <c r="B64" s="90" t="s">
         <v>62</v>
       </c>
       <c r="C64" s="27" t="s">
@@ -5968,51 +5954,51 @@
         <f t="shared" si="1"/>
         <v>1.83</v>
       </c>
-      <c r="J64" s="50">
-        <v>0</v>
-      </c>
-      <c r="K64" s="90">
-        <v>0</v>
-      </c>
-      <c r="L64" s="90">
-        <v>0</v>
-      </c>
-      <c r="M64" s="90">
-        <v>0</v>
-      </c>
-      <c r="N64" s="90">
-        <v>0</v>
-      </c>
-      <c r="O64" s="90">
-        <v>0</v>
-      </c>
-      <c r="P64" s="94">
+      <c r="J64" s="49">
+        <v>0</v>
+      </c>
+      <c r="K64" s="72">
+        <v>0</v>
+      </c>
+      <c r="L64" s="72">
+        <v>0</v>
+      </c>
+      <c r="M64" s="72">
+        <v>0</v>
+      </c>
+      <c r="N64" s="72">
+        <v>0</v>
+      </c>
+      <c r="O64" s="72">
+        <v>0</v>
+      </c>
+      <c r="P64" s="120">
         <v>1.83</v>
       </c>
-      <c r="Q64" s="94">
-        <v>0</v>
-      </c>
-      <c r="R64" s="94">
-        <v>0</v>
-      </c>
-      <c r="S64" s="94">
-        <v>0</v>
-      </c>
-      <c r="T64" s="94">
-        <v>0</v>
-      </c>
-      <c r="U64" s="94">
-        <v>0</v>
-      </c>
-      <c r="V64" s="94">
-        <v>0</v>
-      </c>
-      <c r="W64" s="95">
+      <c r="Q64" s="120">
+        <v>0</v>
+      </c>
+      <c r="R64" s="120">
+        <v>0</v>
+      </c>
+      <c r="S64" s="120">
+        <v>0</v>
+      </c>
+      <c r="T64" s="120">
+        <v>0</v>
+      </c>
+      <c r="U64" s="120">
+        <v>0</v>
+      </c>
+      <c r="V64" s="120">
+        <v>0</v>
+      </c>
+      <c r="W64" s="121">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="126"/>
+      <c r="B65" s="88"/>
       <c r="C65" s="16" t="s">
         <v>64</v>
       </c>
@@ -6036,48 +6022,48 @@
       <c r="J65" s="41">
         <v>0</v>
       </c>
-      <c r="K65" s="89">
-        <v>0</v>
-      </c>
-      <c r="L65" s="89">
-        <v>0</v>
-      </c>
-      <c r="M65" s="89">
-        <v>0</v>
-      </c>
-      <c r="N65" s="89">
-        <v>0</v>
-      </c>
-      <c r="O65" s="89">
-        <v>0</v>
-      </c>
-      <c r="P65" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="89">
-        <v>0</v>
-      </c>
-      <c r="R65" s="84">
+      <c r="K65" s="71">
+        <v>0</v>
+      </c>
+      <c r="L65" s="71">
+        <v>0</v>
+      </c>
+      <c r="M65" s="71">
+        <v>0</v>
+      </c>
+      <c r="N65" s="71">
+        <v>0</v>
+      </c>
+      <c r="O65" s="71">
+        <v>0</v>
+      </c>
+      <c r="P65" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="71">
+        <v>0</v>
+      </c>
+      <c r="R65" s="122">
         <v>0.16</v>
       </c>
-      <c r="S65" s="46">
+      <c r="S65" s="119">
         <v>0.5</v>
       </c>
-      <c r="T65" s="57">
-        <v>0</v>
-      </c>
-      <c r="U65" s="57">
-        <v>0</v>
-      </c>
-      <c r="V65" s="57">
-        <v>0</v>
-      </c>
-      <c r="W65" s="58">
+      <c r="T65" s="119">
+        <v>0</v>
+      </c>
+      <c r="U65" s="119">
+        <v>0</v>
+      </c>
+      <c r="V65" s="119">
+        <v>0</v>
+      </c>
+      <c r="W65" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="126"/>
+      <c r="B66" s="88"/>
       <c r="C66" s="16" t="s">
         <v>65</v>
       </c>
@@ -6101,48 +6087,48 @@
       <c r="J66" s="41">
         <v>0</v>
       </c>
-      <c r="K66" s="89">
-        <v>0</v>
-      </c>
-      <c r="L66" s="89">
-        <v>0</v>
-      </c>
-      <c r="M66" s="89">
-        <v>0</v>
-      </c>
-      <c r="N66" s="89">
-        <v>0</v>
-      </c>
-      <c r="O66" s="89">
-        <v>0</v>
-      </c>
-      <c r="P66" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="89">
-        <v>0</v>
-      </c>
-      <c r="R66" s="83">
-        <v>0</v>
-      </c>
-      <c r="S66" s="46">
+      <c r="K66" s="71">
+        <v>0</v>
+      </c>
+      <c r="L66" s="71">
+        <v>0</v>
+      </c>
+      <c r="M66" s="71">
+        <v>0</v>
+      </c>
+      <c r="N66" s="71">
+        <v>0</v>
+      </c>
+      <c r="O66" s="71">
+        <v>0</v>
+      </c>
+      <c r="P66" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="71">
+        <v>0</v>
+      </c>
+      <c r="R66" s="122">
+        <v>0</v>
+      </c>
+      <c r="S66" s="119">
         <v>0.5</v>
       </c>
-      <c r="T66" s="57">
-        <v>0</v>
-      </c>
-      <c r="U66" s="57">
-        <v>0</v>
-      </c>
-      <c r="V66" s="57">
-        <v>0</v>
-      </c>
-      <c r="W66" s="58">
+      <c r="T66" s="119">
+        <v>0</v>
+      </c>
+      <c r="U66" s="119">
+        <v>0</v>
+      </c>
+      <c r="V66" s="119">
+        <v>0</v>
+      </c>
+      <c r="W66" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="126"/>
+      <c r="B67" s="88"/>
       <c r="C67" s="16" t="s">
         <v>66</v>
       </c>
@@ -6166,48 +6152,48 @@
       <c r="J67" s="41">
         <v>0</v>
       </c>
-      <c r="K67" s="89">
-        <v>0</v>
-      </c>
-      <c r="L67" s="89">
-        <v>0</v>
-      </c>
-      <c r="M67" s="89">
-        <v>0</v>
-      </c>
-      <c r="N67" s="89">
-        <v>0</v>
-      </c>
-      <c r="O67" s="89">
-        <v>0</v>
-      </c>
-      <c r="P67" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="89">
-        <v>0</v>
-      </c>
-      <c r="R67" s="83">
-        <v>0</v>
-      </c>
-      <c r="S67" s="46">
+      <c r="K67" s="71">
+        <v>0</v>
+      </c>
+      <c r="L67" s="71">
+        <v>0</v>
+      </c>
+      <c r="M67" s="71">
+        <v>0</v>
+      </c>
+      <c r="N67" s="71">
+        <v>0</v>
+      </c>
+      <c r="O67" s="71">
+        <v>0</v>
+      </c>
+      <c r="P67" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="71">
+        <v>0</v>
+      </c>
+      <c r="R67" s="122">
+        <v>0</v>
+      </c>
+      <c r="S67" s="119">
         <v>0.23</v>
       </c>
-      <c r="T67" s="57">
-        <v>0</v>
-      </c>
-      <c r="U67" s="57">
-        <v>0</v>
-      </c>
-      <c r="V67" s="57">
-        <v>0</v>
-      </c>
-      <c r="W67" s="58">
+      <c r="T67" s="119">
+        <v>0</v>
+      </c>
+      <c r="U67" s="119">
+        <v>0</v>
+      </c>
+      <c r="V67" s="119">
+        <v>0</v>
+      </c>
+      <c r="W67" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="126"/>
+      <c r="B68" s="88"/>
       <c r="C68" s="16" t="s">
         <v>67</v>
       </c>
@@ -6231,48 +6217,48 @@
       <c r="J68" s="41">
         <v>0</v>
       </c>
-      <c r="K68" s="89">
-        <v>0</v>
-      </c>
-      <c r="L68" s="89">
-        <v>0</v>
-      </c>
-      <c r="M68" s="89">
-        <v>0</v>
-      </c>
-      <c r="N68" s="89">
-        <v>0</v>
-      </c>
-      <c r="O68" s="89">
-        <v>0</v>
-      </c>
-      <c r="P68" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="89">
-        <v>0</v>
-      </c>
-      <c r="R68" s="83">
-        <v>0</v>
-      </c>
-      <c r="S68" s="46">
+      <c r="K68" s="71">
+        <v>0</v>
+      </c>
+      <c r="L68" s="71">
+        <v>0</v>
+      </c>
+      <c r="M68" s="71">
+        <v>0</v>
+      </c>
+      <c r="N68" s="71">
+        <v>0</v>
+      </c>
+      <c r="O68" s="71">
+        <v>0</v>
+      </c>
+      <c r="P68" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="71">
+        <v>0</v>
+      </c>
+      <c r="R68" s="122">
+        <v>0</v>
+      </c>
+      <c r="S68" s="119">
         <v>0.33</v>
       </c>
-      <c r="T68" s="57">
-        <v>0</v>
-      </c>
-      <c r="U68" s="57">
-        <v>0</v>
-      </c>
-      <c r="V68" s="57">
-        <v>0</v>
-      </c>
-      <c r="W68" s="58">
+      <c r="T68" s="119">
+        <v>0</v>
+      </c>
+      <c r="U68" s="119">
+        <v>0</v>
+      </c>
+      <c r="V68" s="119">
+        <v>0</v>
+      </c>
+      <c r="W68" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="126"/>
+      <c r="B69" s="88"/>
       <c r="C69" s="16" t="s">
         <v>68</v>
       </c>
@@ -6296,48 +6282,48 @@
       <c r="J69" s="41">
         <v>0</v>
       </c>
-      <c r="K69" s="89">
-        <v>0</v>
-      </c>
-      <c r="L69" s="89">
-        <v>0</v>
-      </c>
-      <c r="M69" s="89">
-        <v>0</v>
-      </c>
-      <c r="N69" s="89">
-        <v>0</v>
-      </c>
-      <c r="O69" s="89">
-        <v>0</v>
-      </c>
-      <c r="P69" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="89">
-        <v>0</v>
-      </c>
-      <c r="R69" s="83">
-        <v>0</v>
-      </c>
-      <c r="S69" s="46">
+      <c r="K69" s="71">
+        <v>0</v>
+      </c>
+      <c r="L69" s="71">
+        <v>0</v>
+      </c>
+      <c r="M69" s="71">
+        <v>0</v>
+      </c>
+      <c r="N69" s="71">
+        <v>0</v>
+      </c>
+      <c r="O69" s="71">
+        <v>0</v>
+      </c>
+      <c r="P69" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="71">
+        <v>0</v>
+      </c>
+      <c r="R69" s="122">
+        <v>0</v>
+      </c>
+      <c r="S69" s="119">
         <v>0.5</v>
       </c>
-      <c r="T69" s="57">
-        <v>0</v>
-      </c>
-      <c r="U69" s="57">
-        <v>0</v>
-      </c>
-      <c r="V69" s="57">
-        <v>0</v>
-      </c>
-      <c r="W69" s="58">
+      <c r="T69" s="119">
+        <v>0</v>
+      </c>
+      <c r="U69" s="119">
+        <v>0</v>
+      </c>
+      <c r="V69" s="119">
+        <v>0</v>
+      </c>
+      <c r="W69" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="126"/>
+      <c r="B70" s="88"/>
       <c r="C70" s="16" t="s">
         <v>69</v>
       </c>
@@ -6361,48 +6347,48 @@
       <c r="J70" s="41">
         <v>0</v>
       </c>
-      <c r="K70" s="89">
-        <v>0</v>
-      </c>
-      <c r="L70" s="89">
-        <v>0</v>
-      </c>
-      <c r="M70" s="89">
-        <v>0</v>
-      </c>
-      <c r="N70" s="89">
-        <v>0</v>
-      </c>
-      <c r="O70" s="89">
-        <v>0</v>
-      </c>
-      <c r="P70" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="89">
-        <v>0</v>
-      </c>
-      <c r="R70" s="83">
-        <v>0</v>
-      </c>
-      <c r="S70" s="46">
+      <c r="K70" s="71">
+        <v>0</v>
+      </c>
+      <c r="L70" s="71">
+        <v>0</v>
+      </c>
+      <c r="M70" s="71">
+        <v>0</v>
+      </c>
+      <c r="N70" s="71">
+        <v>0</v>
+      </c>
+      <c r="O70" s="71">
+        <v>0</v>
+      </c>
+      <c r="P70" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="71">
+        <v>0</v>
+      </c>
+      <c r="R70" s="122">
+        <v>0</v>
+      </c>
+      <c r="S70" s="119">
         <v>0.57999999999999996</v>
       </c>
-      <c r="T70" s="57">
-        <v>0</v>
-      </c>
-      <c r="U70" s="57">
-        <v>0</v>
-      </c>
-      <c r="V70" s="57">
-        <v>0</v>
-      </c>
-      <c r="W70" s="58">
+      <c r="T70" s="119">
+        <v>0</v>
+      </c>
+      <c r="U70" s="119">
+        <v>0</v>
+      </c>
+      <c r="V70" s="119">
+        <v>0</v>
+      </c>
+      <c r="W70" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="126"/>
+      <c r="B71" s="88"/>
       <c r="C71" s="16" t="s">
         <v>70</v>
       </c>
@@ -6426,48 +6412,48 @@
       <c r="J71" s="41">
         <v>0</v>
       </c>
-      <c r="K71" s="89">
-        <v>0</v>
-      </c>
-      <c r="L71" s="89">
-        <v>0</v>
-      </c>
-      <c r="M71" s="89">
-        <v>0</v>
-      </c>
-      <c r="N71" s="89">
-        <v>0</v>
-      </c>
-      <c r="O71" s="89">
-        <v>0</v>
-      </c>
-      <c r="P71" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="89">
-        <v>0</v>
-      </c>
-      <c r="R71" s="83">
-        <v>0</v>
-      </c>
-      <c r="S71" s="46">
+      <c r="K71" s="71">
+        <v>0</v>
+      </c>
+      <c r="L71" s="71">
+        <v>0</v>
+      </c>
+      <c r="M71" s="71">
+        <v>0</v>
+      </c>
+      <c r="N71" s="71">
+        <v>0</v>
+      </c>
+      <c r="O71" s="71">
+        <v>0</v>
+      </c>
+      <c r="P71" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="71">
+        <v>0</v>
+      </c>
+      <c r="R71" s="122">
+        <v>0</v>
+      </c>
+      <c r="S71" s="119">
         <v>0.25</v>
       </c>
-      <c r="T71" s="57">
-        <v>0</v>
-      </c>
-      <c r="U71" s="57">
-        <v>0</v>
-      </c>
-      <c r="V71" s="57">
-        <v>0</v>
-      </c>
-      <c r="W71" s="58">
+      <c r="T71" s="119">
+        <v>0</v>
+      </c>
+      <c r="U71" s="119">
+        <v>0</v>
+      </c>
+      <c r="V71" s="119">
+        <v>0</v>
+      </c>
+      <c r="W71" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="126"/>
+      <c r="B72" s="88"/>
       <c r="C72" s="29" t="s">
         <v>71</v>
       </c>
@@ -6484,55 +6470,55 @@
       <c r="H72" s="34">
         <v>0.25</v>
       </c>
-      <c r="I72" s="85">
+      <c r="I72" s="68">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="J72" s="88">
-        <v>0</v>
-      </c>
-      <c r="K72" s="93">
-        <v>0</v>
-      </c>
-      <c r="L72" s="93">
-        <v>0</v>
-      </c>
-      <c r="M72" s="93">
-        <v>0</v>
-      </c>
-      <c r="N72" s="93">
-        <v>0</v>
-      </c>
-      <c r="O72" s="93">
-        <v>0</v>
-      </c>
-      <c r="P72" s="93">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="93">
-        <v>0</v>
-      </c>
-      <c r="R72" s="98">
-        <v>0</v>
-      </c>
-      <c r="S72" s="99">
+      <c r="J72" s="70">
+        <v>0</v>
+      </c>
+      <c r="K72" s="74">
+        <v>0</v>
+      </c>
+      <c r="L72" s="74">
+        <v>0</v>
+      </c>
+      <c r="M72" s="74">
+        <v>0</v>
+      </c>
+      <c r="N72" s="74">
+        <v>0</v>
+      </c>
+      <c r="O72" s="74">
+        <v>0</v>
+      </c>
+      <c r="P72" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="74">
+        <v>0</v>
+      </c>
+      <c r="R72" s="126">
+        <v>0</v>
+      </c>
+      <c r="S72" s="75">
         <v>0.1</v>
       </c>
-      <c r="T72" s="59">
-        <v>0</v>
-      </c>
-      <c r="U72" s="59">
-        <v>0</v>
-      </c>
-      <c r="V72" s="59">
-        <v>0</v>
-      </c>
-      <c r="W72" s="60">
+      <c r="T72" s="75">
+        <v>0</v>
+      </c>
+      <c r="U72" s="75">
+        <v>0</v>
+      </c>
+      <c r="V72" s="75">
+        <v>0</v>
+      </c>
+      <c r="W72" s="76">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="115" t="s">
+      <c r="B73" s="103" t="s">
         <v>86</v>
       </c>
       <c r="C73" s="6" t="s">
@@ -6555,51 +6541,51 @@
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="J73" s="50">
-        <v>0</v>
-      </c>
-      <c r="K73" s="90">
-        <v>0</v>
-      </c>
-      <c r="L73" s="90">
-        <v>0</v>
-      </c>
-      <c r="M73" s="90">
-        <v>0</v>
-      </c>
-      <c r="N73" s="90">
-        <v>0</v>
-      </c>
-      <c r="O73" s="90">
-        <v>0</v>
-      </c>
-      <c r="P73" s="94">
+      <c r="J73" s="49">
+        <v>0</v>
+      </c>
+      <c r="K73" s="72">
+        <v>0</v>
+      </c>
+      <c r="L73" s="72">
+        <v>0</v>
+      </c>
+      <c r="M73" s="72">
+        <v>0</v>
+      </c>
+      <c r="N73" s="72">
+        <v>0</v>
+      </c>
+      <c r="O73" s="72">
+        <v>0</v>
+      </c>
+      <c r="P73" s="120">
         <v>0.05</v>
       </c>
-      <c r="Q73" s="94">
-        <v>0</v>
-      </c>
-      <c r="R73" s="94">
-        <v>0</v>
-      </c>
-      <c r="S73" s="94">
-        <v>0</v>
-      </c>
-      <c r="T73" s="94">
-        <v>0</v>
-      </c>
-      <c r="U73" s="94">
-        <v>0</v>
-      </c>
-      <c r="V73" s="94">
-        <v>0</v>
-      </c>
-      <c r="W73" s="95">
+      <c r="Q73" s="120">
+        <v>0</v>
+      </c>
+      <c r="R73" s="120">
+        <v>0</v>
+      </c>
+      <c r="S73" s="120">
+        <v>0</v>
+      </c>
+      <c r="T73" s="120">
+        <v>0</v>
+      </c>
+      <c r="U73" s="120">
+        <v>0</v>
+      </c>
+      <c r="V73" s="120">
+        <v>0</v>
+      </c>
+      <c r="W73" s="121">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="116"/>
+      <c r="B74" s="104"/>
       <c r="C74" s="4" t="s">
         <v>26</v>
       </c>
@@ -6623,48 +6609,48 @@
       <c r="J74" s="41">
         <v>0</v>
       </c>
-      <c r="K74" s="89">
-        <v>0</v>
-      </c>
-      <c r="L74" s="89">
-        <v>0</v>
-      </c>
-      <c r="M74" s="89">
-        <v>0</v>
-      </c>
-      <c r="N74" s="89">
-        <v>0</v>
-      </c>
-      <c r="O74" s="89">
-        <v>0</v>
-      </c>
-      <c r="P74" s="57">
+      <c r="K74" s="71">
+        <v>0</v>
+      </c>
+      <c r="L74" s="71">
+        <v>0</v>
+      </c>
+      <c r="M74" s="71">
+        <v>0</v>
+      </c>
+      <c r="N74" s="71">
+        <v>0</v>
+      </c>
+      <c r="O74" s="71">
+        <v>0</v>
+      </c>
+      <c r="P74" s="119">
         <v>0.03</v>
       </c>
-      <c r="Q74" s="57">
-        <v>0</v>
-      </c>
-      <c r="R74" s="57">
-        <v>0</v>
-      </c>
-      <c r="S74" s="57">
-        <v>0</v>
-      </c>
-      <c r="T74" s="57">
-        <v>0</v>
-      </c>
-      <c r="U74" s="57">
-        <v>0</v>
-      </c>
-      <c r="V74" s="57">
-        <v>0</v>
-      </c>
-      <c r="W74" s="58">
+      <c r="Q74" s="119">
+        <v>0</v>
+      </c>
+      <c r="R74" s="119">
+        <v>0</v>
+      </c>
+      <c r="S74" s="119">
+        <v>0</v>
+      </c>
+      <c r="T74" s="119">
+        <v>0</v>
+      </c>
+      <c r="U74" s="119">
+        <v>0</v>
+      </c>
+      <c r="V74" s="119">
+        <v>0</v>
+      </c>
+      <c r="W74" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="116"/>
+      <c r="B75" s="104"/>
       <c r="C75" s="4" t="s">
         <v>28</v>
       </c>
@@ -6688,48 +6674,48 @@
       <c r="J75" s="41">
         <v>0</v>
       </c>
-      <c r="K75" s="89">
-        <v>0</v>
-      </c>
-      <c r="L75" s="89">
-        <v>0</v>
-      </c>
-      <c r="M75" s="89">
-        <v>0</v>
-      </c>
-      <c r="N75" s="89">
-        <v>0</v>
-      </c>
-      <c r="O75" s="89">
-        <v>0</v>
-      </c>
-      <c r="P75" s="57">
+      <c r="K75" s="71">
+        <v>0</v>
+      </c>
+      <c r="L75" s="71">
+        <v>0</v>
+      </c>
+      <c r="M75" s="71">
+        <v>0</v>
+      </c>
+      <c r="N75" s="71">
+        <v>0</v>
+      </c>
+      <c r="O75" s="71">
+        <v>0</v>
+      </c>
+      <c r="P75" s="119">
         <v>0.03</v>
       </c>
-      <c r="Q75" s="57">
-        <v>0</v>
-      </c>
-      <c r="R75" s="57">
-        <v>0</v>
-      </c>
-      <c r="S75" s="57">
-        <v>0</v>
-      </c>
-      <c r="T75" s="57">
-        <v>0</v>
-      </c>
-      <c r="U75" s="57">
-        <v>0</v>
-      </c>
-      <c r="V75" s="57">
-        <v>0</v>
-      </c>
-      <c r="W75" s="58">
+      <c r="Q75" s="119">
+        <v>0</v>
+      </c>
+      <c r="R75" s="119">
+        <v>0</v>
+      </c>
+      <c r="S75" s="119">
+        <v>0</v>
+      </c>
+      <c r="T75" s="119">
+        <v>0</v>
+      </c>
+      <c r="U75" s="119">
+        <v>0</v>
+      </c>
+      <c r="V75" s="119">
+        <v>0</v>
+      </c>
+      <c r="W75" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="116"/>
+      <c r="B76" s="104"/>
       <c r="C76" s="4" t="s">
         <v>29</v>
       </c>
@@ -6753,48 +6739,48 @@
       <c r="J76" s="41">
         <v>0</v>
       </c>
-      <c r="K76" s="89">
-        <v>0</v>
-      </c>
-      <c r="L76" s="89">
-        <v>0</v>
-      </c>
-      <c r="M76" s="89">
-        <v>0</v>
-      </c>
-      <c r="N76" s="89">
-        <v>0</v>
-      </c>
-      <c r="O76" s="89">
-        <v>0</v>
-      </c>
-      <c r="P76" s="57">
+      <c r="K76" s="71">
+        <v>0</v>
+      </c>
+      <c r="L76" s="71">
+        <v>0</v>
+      </c>
+      <c r="M76" s="71">
+        <v>0</v>
+      </c>
+      <c r="N76" s="71">
+        <v>0</v>
+      </c>
+      <c r="O76" s="71">
+        <v>0</v>
+      </c>
+      <c r="P76" s="119">
         <v>0.03</v>
       </c>
-      <c r="Q76" s="57">
-        <v>0</v>
-      </c>
-      <c r="R76" s="57">
-        <v>0</v>
-      </c>
-      <c r="S76" s="57">
-        <v>0</v>
-      </c>
-      <c r="T76" s="57">
-        <v>0</v>
-      </c>
-      <c r="U76" s="57">
-        <v>0</v>
-      </c>
-      <c r="V76" s="57">
-        <v>0</v>
-      </c>
-      <c r="W76" s="58">
+      <c r="Q76" s="119">
+        <v>0</v>
+      </c>
+      <c r="R76" s="119">
+        <v>0</v>
+      </c>
+      <c r="S76" s="119">
+        <v>0</v>
+      </c>
+      <c r="T76" s="119">
+        <v>0</v>
+      </c>
+      <c r="U76" s="119">
+        <v>0</v>
+      </c>
+      <c r="V76" s="119">
+        <v>0</v>
+      </c>
+      <c r="W76" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="116"/>
+      <c r="B77" s="104"/>
       <c r="C77" s="4" t="s">
         <v>30</v>
       </c>
@@ -6818,48 +6804,48 @@
       <c r="J77" s="41">
         <v>0</v>
       </c>
-      <c r="K77" s="89">
-        <v>0</v>
-      </c>
-      <c r="L77" s="89">
-        <v>0</v>
-      </c>
-      <c r="M77" s="89">
-        <v>0</v>
-      </c>
-      <c r="N77" s="89">
-        <v>0</v>
-      </c>
-      <c r="O77" s="89">
-        <v>0</v>
-      </c>
-      <c r="P77" s="57">
+      <c r="K77" s="71">
+        <v>0</v>
+      </c>
+      <c r="L77" s="71">
+        <v>0</v>
+      </c>
+      <c r="M77" s="71">
+        <v>0</v>
+      </c>
+      <c r="N77" s="71">
+        <v>0</v>
+      </c>
+      <c r="O77" s="71">
+        <v>0</v>
+      </c>
+      <c r="P77" s="119">
         <v>0.03</v>
       </c>
-      <c r="Q77" s="57">
-        <v>0</v>
-      </c>
-      <c r="R77" s="57">
-        <v>0</v>
-      </c>
-      <c r="S77" s="57">
-        <v>0</v>
-      </c>
-      <c r="T77" s="57">
-        <v>0</v>
-      </c>
-      <c r="U77" s="57">
-        <v>0</v>
-      </c>
-      <c r="V77" s="57">
-        <v>0</v>
-      </c>
-      <c r="W77" s="58">
+      <c r="Q77" s="119">
+        <v>0</v>
+      </c>
+      <c r="R77" s="119">
+        <v>0</v>
+      </c>
+      <c r="S77" s="119">
+        <v>0</v>
+      </c>
+      <c r="T77" s="119">
+        <v>0</v>
+      </c>
+      <c r="U77" s="119">
+        <v>0</v>
+      </c>
+      <c r="V77" s="119">
+        <v>0</v>
+      </c>
+      <c r="W77" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="116"/>
+      <c r="B78" s="104"/>
       <c r="C78" s="4" t="s">
         <v>31</v>
       </c>
@@ -6883,48 +6869,48 @@
       <c r="J78" s="41">
         <v>0</v>
       </c>
-      <c r="K78" s="89">
-        <v>0</v>
-      </c>
-      <c r="L78" s="89">
-        <v>0</v>
-      </c>
-      <c r="M78" s="89">
-        <v>0</v>
-      </c>
-      <c r="N78" s="89">
-        <v>0</v>
-      </c>
-      <c r="O78" s="89">
-        <v>0</v>
-      </c>
-      <c r="P78" s="57">
+      <c r="K78" s="71">
+        <v>0</v>
+      </c>
+      <c r="L78" s="71">
+        <v>0</v>
+      </c>
+      <c r="M78" s="71">
+        <v>0</v>
+      </c>
+      <c r="N78" s="71">
+        <v>0</v>
+      </c>
+      <c r="O78" s="71">
+        <v>0</v>
+      </c>
+      <c r="P78" s="119">
         <v>0.03</v>
       </c>
-      <c r="Q78" s="57">
-        <v>0</v>
-      </c>
-      <c r="R78" s="57">
-        <v>0</v>
-      </c>
-      <c r="S78" s="57">
-        <v>0</v>
-      </c>
-      <c r="T78" s="57">
-        <v>0</v>
-      </c>
-      <c r="U78" s="57">
-        <v>0</v>
-      </c>
-      <c r="V78" s="57">
-        <v>0</v>
-      </c>
-      <c r="W78" s="58">
+      <c r="Q78" s="119">
+        <v>0</v>
+      </c>
+      <c r="R78" s="119">
+        <v>0</v>
+      </c>
+      <c r="S78" s="119">
+        <v>0</v>
+      </c>
+      <c r="T78" s="119">
+        <v>0</v>
+      </c>
+      <c r="U78" s="119">
+        <v>0</v>
+      </c>
+      <c r="V78" s="119">
+        <v>0</v>
+      </c>
+      <c r="W78" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="116"/>
+      <c r="B79" s="104"/>
       <c r="C79" s="4" t="s">
         <v>32</v>
       </c>
@@ -6948,48 +6934,48 @@
       <c r="J79" s="41">
         <v>0</v>
       </c>
-      <c r="K79" s="89">
-        <v>0</v>
-      </c>
-      <c r="L79" s="89">
-        <v>0</v>
-      </c>
-      <c r="M79" s="89">
-        <v>0</v>
-      </c>
-      <c r="N79" s="89">
-        <v>0</v>
-      </c>
-      <c r="O79" s="89">
-        <v>0</v>
-      </c>
-      <c r="P79" s="57">
+      <c r="K79" s="71">
+        <v>0</v>
+      </c>
+      <c r="L79" s="71">
+        <v>0</v>
+      </c>
+      <c r="M79" s="71">
+        <v>0</v>
+      </c>
+      <c r="N79" s="71">
+        <v>0</v>
+      </c>
+      <c r="O79" s="71">
+        <v>0</v>
+      </c>
+      <c r="P79" s="119">
         <v>0.03</v>
       </c>
-      <c r="Q79" s="57">
-        <v>0</v>
-      </c>
-      <c r="R79" s="57">
-        <v>0</v>
-      </c>
-      <c r="S79" s="57">
-        <v>0</v>
-      </c>
-      <c r="T79" s="57">
-        <v>0</v>
-      </c>
-      <c r="U79" s="57">
-        <v>0</v>
-      </c>
-      <c r="V79" s="57">
-        <v>0</v>
-      </c>
-      <c r="W79" s="58">
+      <c r="Q79" s="119">
+        <v>0</v>
+      </c>
+      <c r="R79" s="119">
+        <v>0</v>
+      </c>
+      <c r="S79" s="119">
+        <v>0</v>
+      </c>
+      <c r="T79" s="119">
+        <v>0</v>
+      </c>
+      <c r="U79" s="119">
+        <v>0</v>
+      </c>
+      <c r="V79" s="119">
+        <v>0</v>
+      </c>
+      <c r="W79" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="116"/>
+      <c r="B80" s="104"/>
       <c r="C80" s="4" t="s">
         <v>33</v>
       </c>
@@ -7013,48 +6999,48 @@
       <c r="J80" s="41">
         <v>0</v>
       </c>
-      <c r="K80" s="89">
-        <v>0</v>
-      </c>
-      <c r="L80" s="89">
-        <v>0</v>
-      </c>
-      <c r="M80" s="89">
-        <v>0</v>
-      </c>
-      <c r="N80" s="89">
-        <v>0</v>
-      </c>
-      <c r="O80" s="89">
-        <v>0</v>
-      </c>
-      <c r="P80" s="57">
+      <c r="K80" s="71">
+        <v>0</v>
+      </c>
+      <c r="L80" s="71">
+        <v>0</v>
+      </c>
+      <c r="M80" s="71">
+        <v>0</v>
+      </c>
+      <c r="N80" s="71">
+        <v>0</v>
+      </c>
+      <c r="O80" s="71">
+        <v>0</v>
+      </c>
+      <c r="P80" s="119">
         <v>0.03</v>
       </c>
-      <c r="Q80" s="57">
-        <v>0</v>
-      </c>
-      <c r="R80" s="57">
-        <v>0</v>
-      </c>
-      <c r="S80" s="57">
-        <v>0</v>
-      </c>
-      <c r="T80" s="57">
-        <v>0</v>
-      </c>
-      <c r="U80" s="57">
-        <v>0</v>
-      </c>
-      <c r="V80" s="57">
-        <v>0</v>
-      </c>
-      <c r="W80" s="58">
+      <c r="Q80" s="119">
+        <v>0</v>
+      </c>
+      <c r="R80" s="119">
+        <v>0</v>
+      </c>
+      <c r="S80" s="119">
+        <v>0</v>
+      </c>
+      <c r="T80" s="119">
+        <v>0</v>
+      </c>
+      <c r="U80" s="119">
+        <v>0</v>
+      </c>
+      <c r="V80" s="119">
+        <v>0</v>
+      </c>
+      <c r="W80" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="116"/>
+      <c r="B81" s="104"/>
       <c r="C81" s="4" t="s">
         <v>34</v>
       </c>
@@ -7078,48 +7064,48 @@
       <c r="J81" s="41">
         <v>0</v>
       </c>
-      <c r="K81" s="89">
-        <v>0</v>
-      </c>
-      <c r="L81" s="89">
-        <v>0</v>
-      </c>
-      <c r="M81" s="89">
-        <v>0</v>
-      </c>
-      <c r="N81" s="89">
-        <v>0</v>
-      </c>
-      <c r="O81" s="89">
-        <v>0</v>
-      </c>
-      <c r="P81" s="57">
+      <c r="K81" s="71">
+        <v>0</v>
+      </c>
+      <c r="L81" s="71">
+        <v>0</v>
+      </c>
+      <c r="M81" s="71">
+        <v>0</v>
+      </c>
+      <c r="N81" s="71">
+        <v>0</v>
+      </c>
+      <c r="O81" s="71">
+        <v>0</v>
+      </c>
+      <c r="P81" s="119">
         <v>0.03</v>
       </c>
-      <c r="Q81" s="57">
-        <v>0</v>
-      </c>
-      <c r="R81" s="57">
-        <v>0</v>
-      </c>
-      <c r="S81" s="57">
-        <v>0</v>
-      </c>
-      <c r="T81" s="57">
-        <v>0</v>
-      </c>
-      <c r="U81" s="57">
-        <v>0</v>
-      </c>
-      <c r="V81" s="57">
-        <v>0</v>
-      </c>
-      <c r="W81" s="58">
+      <c r="Q81" s="119">
+        <v>0</v>
+      </c>
+      <c r="R81" s="119">
+        <v>0</v>
+      </c>
+      <c r="S81" s="119">
+        <v>0</v>
+      </c>
+      <c r="T81" s="119">
+        <v>0</v>
+      </c>
+      <c r="U81" s="119">
+        <v>0</v>
+      </c>
+      <c r="V81" s="119">
+        <v>0</v>
+      </c>
+      <c r="W81" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="116"/>
+      <c r="B82" s="104"/>
       <c r="C82" s="4" t="s">
         <v>35</v>
       </c>
@@ -7143,48 +7129,48 @@
       <c r="J82" s="41">
         <v>0</v>
       </c>
-      <c r="K82" s="89">
-        <v>0</v>
-      </c>
-      <c r="L82" s="89">
-        <v>0</v>
-      </c>
-      <c r="M82" s="89">
-        <v>0</v>
-      </c>
-      <c r="N82" s="89">
-        <v>0</v>
-      </c>
-      <c r="O82" s="89">
-        <v>0</v>
-      </c>
-      <c r="P82" s="57">
+      <c r="K82" s="71">
+        <v>0</v>
+      </c>
+      <c r="L82" s="71">
+        <v>0</v>
+      </c>
+      <c r="M82" s="71">
+        <v>0</v>
+      </c>
+      <c r="N82" s="71">
+        <v>0</v>
+      </c>
+      <c r="O82" s="71">
+        <v>0</v>
+      </c>
+      <c r="P82" s="119">
         <v>0.03</v>
       </c>
-      <c r="Q82" s="57">
-        <v>0</v>
-      </c>
-      <c r="R82" s="57">
-        <v>0</v>
-      </c>
-      <c r="S82" s="57">
-        <v>0</v>
-      </c>
-      <c r="T82" s="57">
-        <v>0</v>
-      </c>
-      <c r="U82" s="57">
-        <v>0</v>
-      </c>
-      <c r="V82" s="57">
-        <v>0</v>
-      </c>
-      <c r="W82" s="58">
+      <c r="Q82" s="119">
+        <v>0</v>
+      </c>
+      <c r="R82" s="119">
+        <v>0</v>
+      </c>
+      <c r="S82" s="119">
+        <v>0</v>
+      </c>
+      <c r="T82" s="119">
+        <v>0</v>
+      </c>
+      <c r="U82" s="119">
+        <v>0</v>
+      </c>
+      <c r="V82" s="119">
+        <v>0</v>
+      </c>
+      <c r="W82" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="116"/>
+      <c r="B83" s="104"/>
       <c r="C83" s="4" t="s">
         <v>36</v>
       </c>
@@ -7208,48 +7194,48 @@
       <c r="J83" s="41">
         <v>0</v>
       </c>
-      <c r="K83" s="89">
-        <v>0</v>
-      </c>
-      <c r="L83" s="89">
-        <v>0</v>
-      </c>
-      <c r="M83" s="89">
-        <v>0</v>
-      </c>
-      <c r="N83" s="89">
-        <v>0</v>
-      </c>
-      <c r="O83" s="89">
-        <v>0</v>
-      </c>
-      <c r="P83" s="57">
+      <c r="K83" s="71">
+        <v>0</v>
+      </c>
+      <c r="L83" s="71">
+        <v>0</v>
+      </c>
+      <c r="M83" s="71">
+        <v>0</v>
+      </c>
+      <c r="N83" s="71">
+        <v>0</v>
+      </c>
+      <c r="O83" s="71">
+        <v>0</v>
+      </c>
+      <c r="P83" s="119">
         <v>0.03</v>
       </c>
-      <c r="Q83" s="57">
-        <v>0</v>
-      </c>
-      <c r="R83" s="57">
-        <v>0</v>
-      </c>
-      <c r="S83" s="57">
-        <v>0</v>
-      </c>
-      <c r="T83" s="57">
-        <v>0</v>
-      </c>
-      <c r="U83" s="57">
-        <v>0</v>
-      </c>
-      <c r="V83" s="57">
-        <v>0</v>
-      </c>
-      <c r="W83" s="58">
+      <c r="Q83" s="119">
+        <v>0</v>
+      </c>
+      <c r="R83" s="119">
+        <v>0</v>
+      </c>
+      <c r="S83" s="119">
+        <v>0</v>
+      </c>
+      <c r="T83" s="119">
+        <v>0</v>
+      </c>
+      <c r="U83" s="119">
+        <v>0</v>
+      </c>
+      <c r="V83" s="119">
+        <v>0</v>
+      </c>
+      <c r="W83" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="116"/>
+      <c r="B84" s="104"/>
       <c r="C84" s="4" t="s">
         <v>37</v>
       </c>
@@ -7273,48 +7259,48 @@
       <c r="J84" s="41">
         <v>0</v>
       </c>
-      <c r="K84" s="89">
-        <v>0</v>
-      </c>
-      <c r="L84" s="89">
-        <v>0</v>
-      </c>
-      <c r="M84" s="89">
-        <v>0</v>
-      </c>
-      <c r="N84" s="89">
-        <v>0</v>
-      </c>
-      <c r="O84" s="89">
-        <v>0</v>
-      </c>
-      <c r="P84" s="57">
+      <c r="K84" s="71">
+        <v>0</v>
+      </c>
+      <c r="L84" s="71">
+        <v>0</v>
+      </c>
+      <c r="M84" s="71">
+        <v>0</v>
+      </c>
+      <c r="N84" s="71">
+        <v>0</v>
+      </c>
+      <c r="O84" s="71">
+        <v>0</v>
+      </c>
+      <c r="P84" s="119">
         <v>0.03</v>
       </c>
-      <c r="Q84" s="57">
-        <v>0</v>
-      </c>
-      <c r="R84" s="57">
-        <v>0</v>
-      </c>
-      <c r="S84" s="57">
-        <v>0</v>
-      </c>
-      <c r="T84" s="57">
-        <v>0</v>
-      </c>
-      <c r="U84" s="57">
-        <v>0</v>
-      </c>
-      <c r="V84" s="57">
-        <v>0</v>
-      </c>
-      <c r="W84" s="58">
+      <c r="Q84" s="119">
+        <v>0</v>
+      </c>
+      <c r="R84" s="119">
+        <v>0</v>
+      </c>
+      <c r="S84" s="119">
+        <v>0</v>
+      </c>
+      <c r="T84" s="119">
+        <v>0</v>
+      </c>
+      <c r="U84" s="119">
+        <v>0</v>
+      </c>
+      <c r="V84" s="119">
+        <v>0</v>
+      </c>
+      <c r="W84" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="116"/>
+      <c r="B85" s="104"/>
       <c r="C85" s="4" t="s">
         <v>38</v>
       </c>
@@ -7338,48 +7324,48 @@
       <c r="J85" s="41">
         <v>0</v>
       </c>
-      <c r="K85" s="89">
-        <v>0</v>
-      </c>
-      <c r="L85" s="89">
-        <v>0</v>
-      </c>
-      <c r="M85" s="89">
-        <v>0</v>
-      </c>
-      <c r="N85" s="89">
-        <v>0</v>
-      </c>
-      <c r="O85" s="89">
-        <v>0</v>
-      </c>
-      <c r="P85" s="57">
+      <c r="K85" s="71">
+        <v>0</v>
+      </c>
+      <c r="L85" s="71">
+        <v>0</v>
+      </c>
+      <c r="M85" s="71">
+        <v>0</v>
+      </c>
+      <c r="N85" s="71">
+        <v>0</v>
+      </c>
+      <c r="O85" s="71">
+        <v>0</v>
+      </c>
+      <c r="P85" s="119">
         <v>0.03</v>
       </c>
-      <c r="Q85" s="57">
-        <v>0</v>
-      </c>
-      <c r="R85" s="57">
-        <v>0</v>
-      </c>
-      <c r="S85" s="57">
-        <v>0</v>
-      </c>
-      <c r="T85" s="57">
-        <v>0</v>
-      </c>
-      <c r="U85" s="57">
-        <v>0</v>
-      </c>
-      <c r="V85" s="57">
-        <v>0</v>
-      </c>
-      <c r="W85" s="58">
+      <c r="Q85" s="119">
+        <v>0</v>
+      </c>
+      <c r="R85" s="119">
+        <v>0</v>
+      </c>
+      <c r="S85" s="119">
+        <v>0</v>
+      </c>
+      <c r="T85" s="119">
+        <v>0</v>
+      </c>
+      <c r="U85" s="119">
+        <v>0</v>
+      </c>
+      <c r="V85" s="119">
+        <v>0</v>
+      </c>
+      <c r="W85" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="116"/>
+      <c r="B86" s="104"/>
       <c r="C86" s="4" t="s">
         <v>39</v>
       </c>
@@ -7403,48 +7389,48 @@
       <c r="J86" s="41">
         <v>0</v>
       </c>
-      <c r="K86" s="89">
-        <v>0</v>
-      </c>
-      <c r="L86" s="89">
-        <v>0</v>
-      </c>
-      <c r="M86" s="89">
-        <v>0</v>
-      </c>
-      <c r="N86" s="89">
-        <v>0</v>
-      </c>
-      <c r="O86" s="89">
-        <v>0</v>
-      </c>
-      <c r="P86" s="57">
+      <c r="K86" s="71">
+        <v>0</v>
+      </c>
+      <c r="L86" s="71">
+        <v>0</v>
+      </c>
+      <c r="M86" s="71">
+        <v>0</v>
+      </c>
+      <c r="N86" s="71">
+        <v>0</v>
+      </c>
+      <c r="O86" s="71">
+        <v>0</v>
+      </c>
+      <c r="P86" s="119">
         <v>0.03</v>
       </c>
-      <c r="Q86" s="57">
-        <v>0</v>
-      </c>
-      <c r="R86" s="57">
-        <v>0</v>
-      </c>
-      <c r="S86" s="57">
-        <v>0</v>
-      </c>
-      <c r="T86" s="57">
-        <v>0</v>
-      </c>
-      <c r="U86" s="57">
-        <v>0</v>
-      </c>
-      <c r="V86" s="57">
-        <v>0</v>
-      </c>
-      <c r="W86" s="58">
+      <c r="Q86" s="119">
+        <v>0</v>
+      </c>
+      <c r="R86" s="119">
+        <v>0</v>
+      </c>
+      <c r="S86" s="119">
+        <v>0</v>
+      </c>
+      <c r="T86" s="119">
+        <v>0</v>
+      </c>
+      <c r="U86" s="119">
+        <v>0</v>
+      </c>
+      <c r="V86" s="119">
+        <v>0</v>
+      </c>
+      <c r="W86" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="116"/>
+      <c r="B87" s="104"/>
       <c r="C87" s="4" t="s">
         <v>40</v>
       </c>
@@ -7468,48 +7454,48 @@
       <c r="J87" s="41">
         <v>0</v>
       </c>
-      <c r="K87" s="89">
-        <v>0</v>
-      </c>
-      <c r="L87" s="89">
-        <v>0</v>
-      </c>
-      <c r="M87" s="89">
-        <v>0</v>
-      </c>
-      <c r="N87" s="89">
-        <v>0</v>
-      </c>
-      <c r="O87" s="89">
-        <v>0</v>
-      </c>
-      <c r="P87" s="57">
+      <c r="K87" s="71">
+        <v>0</v>
+      </c>
+      <c r="L87" s="71">
+        <v>0</v>
+      </c>
+      <c r="M87" s="71">
+        <v>0</v>
+      </c>
+      <c r="N87" s="71">
+        <v>0</v>
+      </c>
+      <c r="O87" s="71">
+        <v>0</v>
+      </c>
+      <c r="P87" s="119">
         <v>0.03</v>
       </c>
-      <c r="Q87" s="57">
-        <v>0</v>
-      </c>
-      <c r="R87" s="57">
-        <v>0</v>
-      </c>
-      <c r="S87" s="57">
-        <v>0</v>
-      </c>
-      <c r="T87" s="57">
-        <v>0</v>
-      </c>
-      <c r="U87" s="57">
-        <v>0</v>
-      </c>
-      <c r="V87" s="57">
-        <v>0</v>
-      </c>
-      <c r="W87" s="58">
+      <c r="Q87" s="119">
+        <v>0</v>
+      </c>
+      <c r="R87" s="119">
+        <v>0</v>
+      </c>
+      <c r="S87" s="119">
+        <v>0</v>
+      </c>
+      <c r="T87" s="119">
+        <v>0</v>
+      </c>
+      <c r="U87" s="119">
+        <v>0</v>
+      </c>
+      <c r="V87" s="119">
+        <v>0</v>
+      </c>
+      <c r="W87" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="116"/>
+      <c r="B88" s="104"/>
       <c r="C88" s="4" t="s">
         <v>41</v>
       </c>
@@ -7533,48 +7519,48 @@
       <c r="J88" s="41">
         <v>0</v>
       </c>
-      <c r="K88" s="89">
-        <v>0</v>
-      </c>
-      <c r="L88" s="89">
-        <v>0</v>
-      </c>
-      <c r="M88" s="89">
-        <v>0</v>
-      </c>
-      <c r="N88" s="89">
-        <v>0</v>
-      </c>
-      <c r="O88" s="89">
-        <v>0</v>
-      </c>
-      <c r="P88" s="57">
+      <c r="K88" s="71">
+        <v>0</v>
+      </c>
+      <c r="L88" s="71">
+        <v>0</v>
+      </c>
+      <c r="M88" s="71">
+        <v>0</v>
+      </c>
+      <c r="N88" s="71">
+        <v>0</v>
+      </c>
+      <c r="O88" s="71">
+        <v>0</v>
+      </c>
+      <c r="P88" s="119">
         <v>0.03</v>
       </c>
-      <c r="Q88" s="57">
-        <v>0</v>
-      </c>
-      <c r="R88" s="57">
-        <v>0</v>
-      </c>
-      <c r="S88" s="57">
-        <v>0</v>
-      </c>
-      <c r="T88" s="57">
-        <v>0</v>
-      </c>
-      <c r="U88" s="57">
-        <v>0</v>
-      </c>
-      <c r="V88" s="57">
-        <v>0</v>
-      </c>
-      <c r="W88" s="58">
+      <c r="Q88" s="119">
+        <v>0</v>
+      </c>
+      <c r="R88" s="119">
+        <v>0</v>
+      </c>
+      <c r="S88" s="119">
+        <v>0</v>
+      </c>
+      <c r="T88" s="119">
+        <v>0</v>
+      </c>
+      <c r="U88" s="119">
+        <v>0</v>
+      </c>
+      <c r="V88" s="119">
+        <v>0</v>
+      </c>
+      <c r="W88" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="116"/>
+      <c r="B89" s="104"/>
       <c r="C89" s="4" t="s">
         <v>115</v>
       </c>
@@ -7598,48 +7584,48 @@
       <c r="J89" s="41">
         <v>0</v>
       </c>
-      <c r="K89" s="89">
-        <v>0</v>
-      </c>
-      <c r="L89" s="89">
-        <v>0</v>
-      </c>
-      <c r="M89" s="89">
-        <v>0</v>
-      </c>
-      <c r="N89" s="89">
-        <v>0</v>
-      </c>
-      <c r="O89" s="57">
+      <c r="K89" s="71">
+        <v>0</v>
+      </c>
+      <c r="L89" s="71">
+        <v>0</v>
+      </c>
+      <c r="M89" s="71">
+        <v>0</v>
+      </c>
+      <c r="N89" s="71">
+        <v>0</v>
+      </c>
+      <c r="O89" s="119">
         <v>2.5</v>
       </c>
-      <c r="P89" s="57">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="57">
-        <v>0</v>
-      </c>
-      <c r="R89" s="57">
-        <v>0</v>
-      </c>
-      <c r="S89" s="57">
-        <v>0</v>
-      </c>
-      <c r="T89" s="57">
-        <v>0</v>
-      </c>
-      <c r="U89" s="57">
-        <v>0</v>
-      </c>
-      <c r="V89" s="57">
-        <v>0</v>
-      </c>
-      <c r="W89" s="58">
+      <c r="P89" s="119">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="119">
+        <v>0</v>
+      </c>
+      <c r="R89" s="119">
+        <v>0</v>
+      </c>
+      <c r="S89" s="119">
+        <v>0</v>
+      </c>
+      <c r="T89" s="119">
+        <v>0</v>
+      </c>
+      <c r="U89" s="119">
+        <v>0</v>
+      </c>
+      <c r="V89" s="119">
+        <v>0</v>
+      </c>
+      <c r="W89" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="116"/>
+      <c r="B90" s="104"/>
       <c r="C90" s="4" t="s">
         <v>116</v>
       </c>
@@ -7663,48 +7649,48 @@
       <c r="J90" s="41">
         <v>0</v>
       </c>
-      <c r="K90" s="89">
-        <v>0</v>
-      </c>
-      <c r="L90" s="89">
-        <v>0</v>
-      </c>
-      <c r="M90" s="89">
-        <v>0</v>
-      </c>
-      <c r="N90" s="89">
-        <v>0</v>
-      </c>
-      <c r="O90" s="89">
-        <v>0</v>
-      </c>
-      <c r="P90" s="57">
+      <c r="K90" s="71">
+        <v>0</v>
+      </c>
+      <c r="L90" s="71">
+        <v>0</v>
+      </c>
+      <c r="M90" s="71">
+        <v>0</v>
+      </c>
+      <c r="N90" s="71">
+        <v>0</v>
+      </c>
+      <c r="O90" s="71">
+        <v>0</v>
+      </c>
+      <c r="P90" s="119">
         <v>3</v>
       </c>
-      <c r="Q90" s="57">
-        <v>0</v>
-      </c>
-      <c r="R90" s="57">
-        <v>0</v>
-      </c>
-      <c r="S90" s="57">
-        <v>0</v>
-      </c>
-      <c r="T90" s="57">
-        <v>0</v>
-      </c>
-      <c r="U90" s="57">
-        <v>0</v>
-      </c>
-      <c r="V90" s="57">
-        <v>0</v>
-      </c>
-      <c r="W90" s="58">
+      <c r="Q90" s="119">
+        <v>0</v>
+      </c>
+      <c r="R90" s="119">
+        <v>0</v>
+      </c>
+      <c r="S90" s="119">
+        <v>0</v>
+      </c>
+      <c r="T90" s="119">
+        <v>0</v>
+      </c>
+      <c r="U90" s="119">
+        <v>0</v>
+      </c>
+      <c r="V90" s="119">
+        <v>0</v>
+      </c>
+      <c r="W90" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="116"/>
+      <c r="B91" s="104"/>
       <c r="C91" s="4" t="s">
         <v>42</v>
       </c>
@@ -7728,48 +7714,48 @@
       <c r="J91" s="41">
         <v>0</v>
       </c>
-      <c r="K91" s="89">
-        <v>0</v>
-      </c>
-      <c r="L91" s="89">
-        <v>0</v>
-      </c>
-      <c r="M91" s="89">
-        <v>0</v>
-      </c>
-      <c r="N91" s="89">
-        <v>0</v>
-      </c>
-      <c r="O91" s="89">
-        <v>0</v>
-      </c>
-      <c r="P91" s="57">
+      <c r="K91" s="71">
+        <v>0</v>
+      </c>
+      <c r="L91" s="71">
+        <v>0</v>
+      </c>
+      <c r="M91" s="71">
+        <v>0</v>
+      </c>
+      <c r="N91" s="71">
+        <v>0</v>
+      </c>
+      <c r="O91" s="71">
+        <v>0</v>
+      </c>
+      <c r="P91" s="119">
         <v>0.3</v>
       </c>
-      <c r="Q91" s="57">
-        <v>0</v>
-      </c>
-      <c r="R91" s="57">
-        <v>0</v>
-      </c>
-      <c r="S91" s="57">
-        <v>0</v>
-      </c>
-      <c r="T91" s="57">
-        <v>0</v>
-      </c>
-      <c r="U91" s="57">
-        <v>0</v>
-      </c>
-      <c r="V91" s="57">
-        <v>0</v>
-      </c>
-      <c r="W91" s="58">
+      <c r="Q91" s="119">
+        <v>0</v>
+      </c>
+      <c r="R91" s="119">
+        <v>0</v>
+      </c>
+      <c r="S91" s="119">
+        <v>0</v>
+      </c>
+      <c r="T91" s="119">
+        <v>0</v>
+      </c>
+      <c r="U91" s="119">
+        <v>0</v>
+      </c>
+      <c r="V91" s="119">
+        <v>0</v>
+      </c>
+      <c r="W91" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="117"/>
+      <c r="B92" s="105"/>
       <c r="C92" s="29" t="s">
         <v>87</v>
       </c>
@@ -7790,54 +7776,54 @@
         <f t="shared" si="1"/>
         <v>2.35</v>
       </c>
-      <c r="J92" s="88">
-        <v>0</v>
-      </c>
-      <c r="K92" s="93">
-        <v>0</v>
-      </c>
-      <c r="L92" s="93">
-        <v>0</v>
-      </c>
-      <c r="M92" s="93">
-        <v>0</v>
-      </c>
-      <c r="N92" s="93">
-        <v>0</v>
-      </c>
-      <c r="O92" s="93">
-        <v>0</v>
-      </c>
-      <c r="P92" s="93">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="93">
-        <v>0</v>
-      </c>
-      <c r="R92" s="98">
-        <v>0</v>
-      </c>
-      <c r="S92" s="100">
+      <c r="J92" s="70">
+        <v>0</v>
+      </c>
+      <c r="K92" s="74">
+        <v>0</v>
+      </c>
+      <c r="L92" s="74">
+        <v>0</v>
+      </c>
+      <c r="M92" s="74">
+        <v>0</v>
+      </c>
+      <c r="N92" s="74">
+        <v>0</v>
+      </c>
+      <c r="O92" s="74">
+        <v>0</v>
+      </c>
+      <c r="P92" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="74">
+        <v>0</v>
+      </c>
+      <c r="R92" s="126">
+        <v>0</v>
+      </c>
+      <c r="S92" s="75">
         <v>2.35</v>
       </c>
-      <c r="T92" s="100">
-        <v>0</v>
-      </c>
-      <c r="U92" s="100">
-        <v>0</v>
-      </c>
-      <c r="V92" s="100">
-        <v>0</v>
-      </c>
-      <c r="W92" s="101">
+      <c r="T92" s="75">
+        <v>0</v>
+      </c>
+      <c r="U92" s="75">
+        <v>0</v>
+      </c>
+      <c r="V92" s="75">
+        <v>0</v>
+      </c>
+      <c r="W92" s="76">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="120" t="s">
+      <c r="B93" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="C93" s="118" t="s">
+      <c r="C93" s="106" t="s">
         <v>89</v>
       </c>
       <c r="D93" s="6" t="s">
@@ -7859,52 +7845,52 @@
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="J93" s="50">
-        <v>0</v>
-      </c>
-      <c r="K93" s="90">
-        <v>0</v>
-      </c>
-      <c r="L93" s="90">
-        <v>0</v>
-      </c>
-      <c r="M93" s="90">
-        <v>0</v>
-      </c>
-      <c r="N93" s="90">
-        <v>0</v>
-      </c>
-      <c r="O93" s="90">
-        <v>0</v>
-      </c>
-      <c r="P93" s="90">
-        <v>0</v>
-      </c>
-      <c r="Q93" s="90">
-        <v>0</v>
-      </c>
-      <c r="R93" s="94">
+      <c r="J93" s="49">
+        <v>0</v>
+      </c>
+      <c r="K93" s="72">
+        <v>0</v>
+      </c>
+      <c r="L93" s="72">
+        <v>0</v>
+      </c>
+      <c r="M93" s="72">
+        <v>0</v>
+      </c>
+      <c r="N93" s="72">
+        <v>0</v>
+      </c>
+      <c r="O93" s="72">
+        <v>0</v>
+      </c>
+      <c r="P93" s="72">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="72">
+        <v>0</v>
+      </c>
+      <c r="R93" s="120">
         <v>0.7</v>
       </c>
-      <c r="S93" s="94">
-        <v>0</v>
-      </c>
-      <c r="T93" s="94">
-        <v>0</v>
-      </c>
-      <c r="U93" s="94">
-        <v>0</v>
-      </c>
-      <c r="V93" s="94">
-        <v>0</v>
-      </c>
-      <c r="W93" s="95">
+      <c r="S93" s="120">
+        <v>0</v>
+      </c>
+      <c r="T93" s="120">
+        <v>0</v>
+      </c>
+      <c r="U93" s="120">
+        <v>0</v>
+      </c>
+      <c r="V93" s="120">
+        <v>0</v>
+      </c>
+      <c r="W93" s="121">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="120"/>
-      <c r="C94" s="119"/>
+      <c r="B94" s="108"/>
+      <c r="C94" s="107"/>
       <c r="D94" s="4" t="s">
         <v>91</v>
       </c>
@@ -7927,49 +7913,49 @@
       <c r="J94" s="41">
         <v>0</v>
       </c>
-      <c r="K94" s="89">
-        <v>0</v>
-      </c>
-      <c r="L94" s="89">
-        <v>0</v>
-      </c>
-      <c r="M94" s="89">
-        <v>0</v>
-      </c>
-      <c r="N94" s="89">
-        <v>0</v>
-      </c>
-      <c r="O94" s="89">
-        <v>0</v>
-      </c>
-      <c r="P94" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="89">
-        <v>0</v>
-      </c>
-      <c r="R94" s="57">
+      <c r="K94" s="71">
+        <v>0</v>
+      </c>
+      <c r="L94" s="71">
+        <v>0</v>
+      </c>
+      <c r="M94" s="71">
+        <v>0</v>
+      </c>
+      <c r="N94" s="71">
+        <v>0</v>
+      </c>
+      <c r="O94" s="71">
+        <v>0</v>
+      </c>
+      <c r="P94" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="71">
+        <v>0</v>
+      </c>
+      <c r="R94" s="119">
         <v>0.93</v>
       </c>
-      <c r="S94" s="57">
-        <v>0</v>
-      </c>
-      <c r="T94" s="57">
-        <v>0</v>
-      </c>
-      <c r="U94" s="57">
-        <v>0</v>
-      </c>
-      <c r="V94" s="57">
-        <v>0</v>
-      </c>
-      <c r="W94" s="58">
+      <c r="S94" s="119">
+        <v>0</v>
+      </c>
+      <c r="T94" s="119">
+        <v>0</v>
+      </c>
+      <c r="U94" s="119">
+        <v>0</v>
+      </c>
+      <c r="V94" s="119">
+        <v>0</v>
+      </c>
+      <c r="W94" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="120"/>
-      <c r="C95" s="119"/>
+      <c r="B95" s="108"/>
+      <c r="C95" s="107"/>
       <c r="D95" s="4" t="s">
         <v>92</v>
       </c>
@@ -7992,48 +7978,48 @@
       <c r="J95" s="41">
         <v>0</v>
       </c>
-      <c r="K95" s="89">
-        <v>0</v>
-      </c>
-      <c r="L95" s="89">
-        <v>0</v>
-      </c>
-      <c r="M95" s="89">
-        <v>0</v>
-      </c>
-      <c r="N95" s="89">
-        <v>0</v>
-      </c>
-      <c r="O95" s="89">
-        <v>0</v>
-      </c>
-      <c r="P95" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="89">
-        <v>0</v>
-      </c>
-      <c r="R95" s="57">
+      <c r="K95" s="71">
+        <v>0</v>
+      </c>
+      <c r="L95" s="71">
+        <v>0</v>
+      </c>
+      <c r="M95" s="71">
+        <v>0</v>
+      </c>
+      <c r="N95" s="71">
+        <v>0</v>
+      </c>
+      <c r="O95" s="71">
+        <v>0</v>
+      </c>
+      <c r="P95" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="71">
+        <v>0</v>
+      </c>
+      <c r="R95" s="119">
         <v>0.91700000000000004</v>
       </c>
-      <c r="S95" s="57">
-        <v>0</v>
-      </c>
-      <c r="T95" s="57">
-        <v>0</v>
-      </c>
-      <c r="U95" s="57">
-        <v>0</v>
-      </c>
-      <c r="V95" s="57">
-        <v>0</v>
-      </c>
-      <c r="W95" s="58">
+      <c r="S95" s="119">
+        <v>0</v>
+      </c>
+      <c r="T95" s="119">
+        <v>0</v>
+      </c>
+      <c r="U95" s="119">
+        <v>0</v>
+      </c>
+      <c r="V95" s="119">
+        <v>0</v>
+      </c>
+      <c r="W95" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="120"/>
+      <c r="B96" s="108"/>
       <c r="C96" s="16" t="s">
         <v>110</v>
       </c>
@@ -8057,48 +8043,48 @@
       <c r="J96" s="41">
         <v>0</v>
       </c>
-      <c r="K96" s="89">
-        <v>0</v>
-      </c>
-      <c r="L96" s="89">
-        <v>0</v>
-      </c>
-      <c r="M96" s="89">
-        <v>0</v>
-      </c>
-      <c r="N96" s="89">
-        <v>0</v>
-      </c>
-      <c r="O96" s="89">
-        <v>0</v>
-      </c>
-      <c r="P96" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="89">
-        <v>0</v>
-      </c>
-      <c r="R96" s="89">
-        <v>0</v>
-      </c>
-      <c r="S96" s="57">
+      <c r="K96" s="71">
+        <v>0</v>
+      </c>
+      <c r="L96" s="71">
+        <v>0</v>
+      </c>
+      <c r="M96" s="71">
+        <v>0</v>
+      </c>
+      <c r="N96" s="71">
+        <v>0</v>
+      </c>
+      <c r="O96" s="71">
+        <v>0</v>
+      </c>
+      <c r="P96" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="71">
+        <v>0</v>
+      </c>
+      <c r="R96" s="71">
+        <v>0</v>
+      </c>
+      <c r="S96" s="119">
         <v>0.05</v>
       </c>
-      <c r="T96" s="57">
-        <v>0</v>
-      </c>
-      <c r="U96" s="57">
-        <v>0</v>
-      </c>
-      <c r="V96" s="57">
-        <v>0</v>
-      </c>
-      <c r="W96" s="58">
+      <c r="T96" s="119">
+        <v>0</v>
+      </c>
+      <c r="U96" s="119">
+        <v>0</v>
+      </c>
+      <c r="V96" s="119">
+        <v>0</v>
+      </c>
+      <c r="W96" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="120"/>
+      <c r="B97" s="108"/>
       <c r="C97" s="16" t="s">
         <v>93</v>
       </c>
@@ -8122,48 +8108,48 @@
       <c r="J97" s="41">
         <v>0</v>
       </c>
-      <c r="K97" s="89">
-        <v>0</v>
-      </c>
-      <c r="L97" s="89">
-        <v>0</v>
-      </c>
-      <c r="M97" s="89">
-        <v>0</v>
-      </c>
-      <c r="N97" s="89">
-        <v>0</v>
-      </c>
-      <c r="O97" s="89">
-        <v>0</v>
-      </c>
-      <c r="P97" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="89">
-        <v>0</v>
-      </c>
-      <c r="R97" s="89">
-        <v>0</v>
-      </c>
-      <c r="S97" s="89">
-        <v>0</v>
-      </c>
-      <c r="T97" s="89">
-        <v>0</v>
-      </c>
-      <c r="U97" s="89">
-        <v>0</v>
-      </c>
-      <c r="V97" s="89">
-        <v>0</v>
-      </c>
-      <c r="W97" s="89">
+      <c r="K97" s="71">
+        <v>0</v>
+      </c>
+      <c r="L97" s="71">
+        <v>0</v>
+      </c>
+      <c r="M97" s="71">
+        <v>0</v>
+      </c>
+      <c r="N97" s="71">
+        <v>0</v>
+      </c>
+      <c r="O97" s="71">
+        <v>0</v>
+      </c>
+      <c r="P97" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="71">
+        <v>0</v>
+      </c>
+      <c r="R97" s="71">
+        <v>0</v>
+      </c>
+      <c r="S97" s="71">
+        <v>0</v>
+      </c>
+      <c r="T97" s="71">
+        <v>0</v>
+      </c>
+      <c r="U97" s="71">
+        <v>0</v>
+      </c>
+      <c r="V97" s="71">
+        <v>0</v>
+      </c>
+      <c r="W97" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="120"/>
+      <c r="B98" s="108"/>
       <c r="C98" s="16" t="s">
         <v>94</v>
       </c>
@@ -8187,48 +8173,48 @@
       <c r="J98" s="41">
         <v>0</v>
       </c>
-      <c r="K98" s="89">
-        <v>0</v>
-      </c>
-      <c r="L98" s="89">
-        <v>0</v>
-      </c>
-      <c r="M98" s="89">
-        <v>0</v>
-      </c>
-      <c r="N98" s="89">
-        <v>0</v>
-      </c>
-      <c r="O98" s="89">
-        <v>0</v>
-      </c>
-      <c r="P98" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="89">
-        <v>0</v>
-      </c>
-      <c r="R98" s="84">
+      <c r="K98" s="71">
+        <v>0</v>
+      </c>
+      <c r="L98" s="71">
+        <v>0</v>
+      </c>
+      <c r="M98" s="71">
+        <v>0</v>
+      </c>
+      <c r="N98" s="71">
+        <v>0</v>
+      </c>
+      <c r="O98" s="71">
+        <v>0</v>
+      </c>
+      <c r="P98" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="71">
+        <v>0</v>
+      </c>
+      <c r="R98" s="122">
         <v>0.76</v>
       </c>
-      <c r="S98" s="57">
+      <c r="S98" s="119">
         <v>1.5</v>
       </c>
-      <c r="T98" s="57">
-        <v>0</v>
-      </c>
-      <c r="U98" s="57">
-        <v>0</v>
-      </c>
-      <c r="V98" s="57">
-        <v>0</v>
-      </c>
-      <c r="W98" s="58">
+      <c r="T98" s="119">
+        <v>0</v>
+      </c>
+      <c r="U98" s="119">
+        <v>0</v>
+      </c>
+      <c r="V98" s="119">
+        <v>0</v>
+      </c>
+      <c r="W98" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="120"/>
+      <c r="B99" s="108"/>
       <c r="C99" s="16" t="s">
         <v>95</v>
       </c>
@@ -8252,48 +8238,48 @@
       <c r="J99" s="41">
         <v>0</v>
       </c>
-      <c r="K99" s="89">
-        <v>0</v>
-      </c>
-      <c r="L99" s="89">
-        <v>0</v>
-      </c>
-      <c r="M99" s="89">
-        <v>0</v>
-      </c>
-      <c r="N99" s="89">
-        <v>0</v>
-      </c>
-      <c r="O99" s="89">
-        <v>0</v>
-      </c>
-      <c r="P99" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="89">
-        <v>0</v>
-      </c>
-      <c r="R99" s="57">
+      <c r="K99" s="71">
+        <v>0</v>
+      </c>
+      <c r="L99" s="71">
+        <v>0</v>
+      </c>
+      <c r="M99" s="71">
+        <v>0</v>
+      </c>
+      <c r="N99" s="71">
+        <v>0</v>
+      </c>
+      <c r="O99" s="71">
+        <v>0</v>
+      </c>
+      <c r="P99" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="71">
+        <v>0</v>
+      </c>
+      <c r="R99" s="119">
         <v>0.84</v>
       </c>
-      <c r="S99" s="57">
-        <v>0</v>
-      </c>
-      <c r="T99" s="57">
-        <v>0</v>
-      </c>
-      <c r="U99" s="57">
-        <v>0</v>
-      </c>
-      <c r="V99" s="57">
-        <v>0</v>
-      </c>
-      <c r="W99" s="58">
+      <c r="S99" s="119">
+        <v>0</v>
+      </c>
+      <c r="T99" s="119">
+        <v>0</v>
+      </c>
+      <c r="U99" s="119">
+        <v>0</v>
+      </c>
+      <c r="V99" s="119">
+        <v>0</v>
+      </c>
+      <c r="W99" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="120"/>
+      <c r="B100" s="108"/>
       <c r="C100" s="16" t="s">
         <v>96</v>
       </c>
@@ -8317,48 +8303,48 @@
       <c r="J100" s="41">
         <v>0</v>
       </c>
-      <c r="K100" s="89">
-        <v>0</v>
-      </c>
-      <c r="L100" s="89">
-        <v>0</v>
-      </c>
-      <c r="M100" s="89">
-        <v>0</v>
-      </c>
-      <c r="N100" s="89">
-        <v>0</v>
-      </c>
-      <c r="O100" s="89">
-        <v>0</v>
-      </c>
-      <c r="P100" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="89">
-        <v>0</v>
-      </c>
-      <c r="R100" s="89">
-        <v>0</v>
-      </c>
-      <c r="S100" s="89">
-        <v>0</v>
-      </c>
-      <c r="T100" s="89">
-        <v>0</v>
-      </c>
-      <c r="U100" s="89">
-        <v>0</v>
-      </c>
-      <c r="V100" s="89">
-        <v>0</v>
-      </c>
-      <c r="W100" s="89">
+      <c r="K100" s="71">
+        <v>0</v>
+      </c>
+      <c r="L100" s="71">
+        <v>0</v>
+      </c>
+      <c r="M100" s="71">
+        <v>0</v>
+      </c>
+      <c r="N100" s="71">
+        <v>0</v>
+      </c>
+      <c r="O100" s="71">
+        <v>0</v>
+      </c>
+      <c r="P100" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="71">
+        <v>0</v>
+      </c>
+      <c r="R100" s="71">
+        <v>0</v>
+      </c>
+      <c r="S100" s="71">
+        <v>0</v>
+      </c>
+      <c r="T100" s="71">
+        <v>0</v>
+      </c>
+      <c r="U100" s="71">
+        <v>0</v>
+      </c>
+      <c r="V100" s="71">
+        <v>0</v>
+      </c>
+      <c r="W100" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="121"/>
+      <c r="B101" s="109"/>
       <c r="C101" s="16" t="s">
         <v>97</v>
       </c>
@@ -8382,51 +8368,51 @@
       <c r="J101" s="41">
         <v>0</v>
       </c>
-      <c r="K101" s="89">
-        <v>0</v>
-      </c>
-      <c r="L101" s="89">
-        <v>0</v>
-      </c>
-      <c r="M101" s="89">
-        <v>0</v>
-      </c>
-      <c r="N101" s="89">
-        <v>0</v>
-      </c>
-      <c r="O101" s="89">
-        <v>0</v>
-      </c>
-      <c r="P101" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="89">
-        <v>0</v>
-      </c>
-      <c r="R101" s="89">
-        <v>0</v>
-      </c>
-      <c r="S101" s="89">
-        <v>0</v>
-      </c>
-      <c r="T101" s="89">
-        <v>0</v>
-      </c>
-      <c r="U101" s="89">
-        <v>0</v>
-      </c>
-      <c r="V101" s="89">
-        <v>0</v>
-      </c>
-      <c r="W101" s="89">
+      <c r="K101" s="71">
+        <v>0</v>
+      </c>
+      <c r="L101" s="71">
+        <v>0</v>
+      </c>
+      <c r="M101" s="71">
+        <v>0</v>
+      </c>
+      <c r="N101" s="71">
+        <v>0</v>
+      </c>
+      <c r="O101" s="71">
+        <v>0</v>
+      </c>
+      <c r="P101" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="71">
+        <v>0</v>
+      </c>
+      <c r="R101" s="71">
+        <v>0</v>
+      </c>
+      <c r="S101" s="71">
+        <v>0</v>
+      </c>
+      <c r="T101" s="71">
+        <v>0</v>
+      </c>
+      <c r="U101" s="71">
+        <v>0</v>
+      </c>
+      <c r="V101" s="71">
+        <v>0</v>
+      </c>
+      <c r="W101" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="138" t="s">
+      <c r="B102" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="C102" s="107" t="s">
+      <c r="C102" s="81" t="s">
         <v>117</v>
       </c>
       <c r="D102" s="4"/>
@@ -8449,40 +8435,40 @@
       <c r="J102" s="41">
         <v>0</v>
       </c>
-      <c r="K102" s="89">
-        <v>0</v>
-      </c>
-      <c r="L102" s="89">
-        <v>0</v>
-      </c>
-      <c r="M102" s="89">
-        <v>0</v>
-      </c>
-      <c r="N102" s="89">
-        <v>0</v>
-      </c>
-      <c r="O102" s="89">
-        <v>0</v>
-      </c>
-      <c r="P102" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="89">
-        <v>0</v>
-      </c>
-      <c r="R102" s="89">
-        <v>0</v>
-      </c>
-      <c r="S102" s="89">
-        <v>0</v>
-      </c>
-      <c r="T102" s="89">
-        <v>0</v>
-      </c>
-      <c r="U102" s="89">
-        <v>0</v>
-      </c>
-      <c r="V102" s="89">
+      <c r="K102" s="71">
+        <v>0</v>
+      </c>
+      <c r="L102" s="71">
+        <v>0</v>
+      </c>
+      <c r="M102" s="71">
+        <v>0</v>
+      </c>
+      <c r="N102" s="71">
+        <v>0</v>
+      </c>
+      <c r="O102" s="71">
+        <v>0</v>
+      </c>
+      <c r="P102" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="71">
+        <v>0</v>
+      </c>
+      <c r="R102" s="71">
+        <v>0</v>
+      </c>
+      <c r="S102" s="71">
+        <v>0</v>
+      </c>
+      <c r="T102" s="71">
+        <v>0</v>
+      </c>
+      <c r="U102" s="71">
+        <v>0</v>
+      </c>
+      <c r="V102" s="71">
         <v>0</v>
       </c>
       <c r="W102" s="44">
@@ -8490,7 +8476,7 @@
       </c>
     </row>
     <row r="103" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="137"/>
+      <c r="B103" s="101"/>
       <c r="C103" s="16" t="s">
         <v>25</v>
       </c>
@@ -8514,40 +8500,40 @@
       <c r="J103" s="41">
         <v>0</v>
       </c>
-      <c r="K103" s="89">
-        <v>0</v>
-      </c>
-      <c r="L103" s="89">
-        <v>0</v>
-      </c>
-      <c r="M103" s="89">
-        <v>0</v>
-      </c>
-      <c r="N103" s="89">
-        <v>0</v>
-      </c>
-      <c r="O103" s="89">
-        <v>0</v>
-      </c>
-      <c r="P103" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q103" s="89">
-        <v>0</v>
-      </c>
-      <c r="R103" s="89">
-        <v>0</v>
-      </c>
-      <c r="S103" s="89">
-        <v>0</v>
-      </c>
-      <c r="T103" s="83">
+      <c r="K103" s="71">
+        <v>0</v>
+      </c>
+      <c r="L103" s="71">
+        <v>0</v>
+      </c>
+      <c r="M103" s="71">
+        <v>0</v>
+      </c>
+      <c r="N103" s="71">
+        <v>0</v>
+      </c>
+      <c r="O103" s="71">
+        <v>0</v>
+      </c>
+      <c r="P103" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="71">
+        <v>0</v>
+      </c>
+      <c r="R103" s="71">
+        <v>0</v>
+      </c>
+      <c r="S103" s="71">
+        <v>0</v>
+      </c>
+      <c r="T103" s="122">
         <v>0.4</v>
       </c>
-      <c r="U103" s="83">
+      <c r="U103" s="122">
         <v>3.33</v>
       </c>
-      <c r="V103" s="83">
+      <c r="V103" s="122">
         <v>0.54</v>
       </c>
       <c r="W103" s="44">
@@ -8579,7 +8565,7 @@
       <c r="J104" s="41">
         <v>0</v>
       </c>
-      <c r="K104" s="89">
+      <c r="K104" s="71">
         <v>0</v>
       </c>
       <c r="L104" s="44">
@@ -8644,43 +8630,43 @@
       <c r="J105" s="41">
         <v>0</v>
       </c>
-      <c r="K105" s="89">
-        <v>0</v>
-      </c>
-      <c r="L105" s="89">
+      <c r="K105" s="71">
+        <v>0</v>
+      </c>
+      <c r="L105" s="71">
         <v>0</v>
       </c>
       <c r="M105" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N105" s="57">
-        <v>0</v>
-      </c>
-      <c r="O105" s="57">
-        <v>0</v>
-      </c>
-      <c r="P105" s="57">
-        <v>0</v>
-      </c>
-      <c r="Q105" s="57">
-        <v>0</v>
-      </c>
-      <c r="R105" s="57">
-        <v>0</v>
-      </c>
-      <c r="S105" s="57">
-        <v>0</v>
-      </c>
-      <c r="T105" s="57">
-        <v>0</v>
-      </c>
-      <c r="U105" s="57">
-        <v>0</v>
-      </c>
-      <c r="V105" s="57">
-        <v>0</v>
-      </c>
-      <c r="W105" s="58">
+      <c r="N105" s="119">
+        <v>0</v>
+      </c>
+      <c r="O105" s="119">
+        <v>0</v>
+      </c>
+      <c r="P105" s="119">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="119">
+        <v>0</v>
+      </c>
+      <c r="R105" s="119">
+        <v>0</v>
+      </c>
+      <c r="S105" s="119">
+        <v>0</v>
+      </c>
+      <c r="T105" s="119">
+        <v>0</v>
+      </c>
+      <c r="U105" s="119">
+        <v>0</v>
+      </c>
+      <c r="V105" s="119">
+        <v>0</v>
+      </c>
+      <c r="W105" s="123">
         <v>0</v>
       </c>
     </row>
@@ -8709,55 +8695,55 @@
       <c r="J106" s="42">
         <v>0</v>
       </c>
-      <c r="K106" s="92">
-        <v>0</v>
-      </c>
-      <c r="L106" s="105">
+      <c r="K106" s="73">
+        <v>0</v>
+      </c>
+      <c r="L106" s="80">
         <v>0.1</v>
       </c>
-      <c r="M106" s="105">
-        <v>0</v>
-      </c>
-      <c r="N106" s="105">
-        <v>0</v>
-      </c>
-      <c r="O106" s="105">
-        <v>0</v>
-      </c>
-      <c r="P106" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q106" s="96">
-        <v>0</v>
-      </c>
-      <c r="R106" s="96">
-        <v>0</v>
-      </c>
-      <c r="S106" s="96">
-        <v>0</v>
-      </c>
-      <c r="T106" s="96">
-        <v>0</v>
-      </c>
-      <c r="U106" s="96">
-        <v>0</v>
-      </c>
-      <c r="V106" s="96">
-        <v>0</v>
-      </c>
-      <c r="W106" s="97">
+      <c r="M106" s="80">
+        <v>0</v>
+      </c>
+      <c r="N106" s="80">
+        <v>0</v>
+      </c>
+      <c r="O106" s="80">
+        <v>0</v>
+      </c>
+      <c r="P106" s="124">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="124">
+        <v>0</v>
+      </c>
+      <c r="R106" s="124">
+        <v>0</v>
+      </c>
+      <c r="S106" s="124">
+        <v>0</v>
+      </c>
+      <c r="T106" s="124">
+        <v>0</v>
+      </c>
+      <c r="U106" s="124">
+        <v>0</v>
+      </c>
+      <c r="V106" s="124">
+        <v>0</v>
+      </c>
+      <c r="W106" s="125">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="135" t="s">
+      <c r="B107" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C107" s="136"/>
-      <c r="D107" s="136"/>
-      <c r="E107" s="136"/>
-      <c r="F107" s="136"/>
-      <c r="G107" s="136"/>
+      <c r="C107" s="99"/>
+      <c r="D107" s="99"/>
+      <c r="E107" s="99"/>
+      <c r="F107" s="99"/>
+      <c r="G107" s="99"/>
       <c r="H107" s="24">
         <f t="shared" ref="H107:W107" si="2">SUM(H4:H106)</f>
         <v>34.85</v>
@@ -8766,59 +8752,59 @@
         <f t="shared" si="2"/>
         <v>35.428999999999995</v>
       </c>
-      <c r="J107" s="102">
+      <c r="J107" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K107" s="103">
+      <c r="K107" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L107" s="103">
+      <c r="L107" s="78">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="M107" s="103">
+      <c r="M107" s="78">
         <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N107" s="103">
+      <c r="N107" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O107" s="103">
+      <c r="O107" s="78">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="P107" s="103">
+      <c r="P107" s="78">
         <f t="shared" si="2"/>
         <v>8.9750000000000014</v>
       </c>
-      <c r="Q107" s="103">
+      <c r="Q107" s="78">
         <f t="shared" si="2"/>
         <v>3.4870000000000001</v>
       </c>
-      <c r="R107" s="103">
+      <c r="R107" s="78">
         <f t="shared" si="2"/>
         <v>4.407</v>
       </c>
-      <c r="S107" s="103">
+      <c r="S107" s="78">
         <f t="shared" si="2"/>
         <v>6.89</v>
       </c>
-      <c r="T107" s="103">
+      <c r="T107" s="78">
         <f t="shared" si="2"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="U107" s="103">
+      <c r="U107" s="78">
         <f t="shared" si="2"/>
         <v>4.54</v>
       </c>
-      <c r="V107" s="103">
+      <c r="V107" s="78">
         <f t="shared" si="2"/>
         <v>1.45</v>
       </c>
-      <c r="W107" s="104">
+      <c r="W107" s="79">
         <f t="shared" si="2"/>
         <v>1.76</v>
       </c>
@@ -8832,22 +8818,22 @@
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
-      <c r="J108" s="123" t="s">
+      <c r="J108" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="K108" s="124"/>
-      <c r="L108" s="124"/>
-      <c r="M108" s="124"/>
-      <c r="N108" s="124"/>
-      <c r="O108" s="124"/>
-      <c r="P108" s="124"/>
-      <c r="Q108" s="124"/>
-      <c r="R108" s="124"/>
-      <c r="S108" s="124"/>
-      <c r="T108" s="124"/>
-      <c r="U108" s="124"/>
-      <c r="V108" s="124"/>
-      <c r="W108" s="125"/>
+      <c r="K108" s="86"/>
+      <c r="L108" s="86"/>
+      <c r="M108" s="86"/>
+      <c r="N108" s="86"/>
+      <c r="O108" s="86"/>
+      <c r="P108" s="86"/>
+      <c r="Q108" s="86"/>
+      <c r="R108" s="86"/>
+      <c r="S108" s="86"/>
+      <c r="T108" s="86"/>
+      <c r="U108" s="86"/>
+      <c r="V108" s="86"/>
+      <c r="W108" s="87"/>
     </row>
     <row r="109" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B109" s="2"/>
@@ -8872,10 +8858,10 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
-      <c r="H110" s="110" t="s">
+      <c r="H110" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="I110" s="122"/>
+      <c r="I110" s="110"/>
       <c r="J110" s="12">
         <f>H107-J107</f>
         <v>34.85</v>
@@ -8953,27 +8939,27 @@
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
-      <c r="H112" s="110" t="s">
+      <c r="H112" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="I112" s="111"/>
-      <c r="J112" s="110">
+      <c r="I112" s="83"/>
+      <c r="J112" s="82">
         <f>H107-I107</f>
         <v>-0.57899999999999352</v>
       </c>
-      <c r="K112" s="111"/>
-      <c r="L112" s="111"/>
-      <c r="M112" s="111"/>
-      <c r="N112" s="111"/>
-      <c r="O112" s="111"/>
-      <c r="P112" s="111"/>
-      <c r="Q112" s="111"/>
-      <c r="R112" s="111"/>
-      <c r="S112" s="111"/>
-      <c r="T112" s="111"/>
-      <c r="U112" s="111"/>
-      <c r="V112" s="111"/>
-      <c r="W112" s="112"/>
+      <c r="K112" s="83"/>
+      <c r="L112" s="83"/>
+      <c r="M112" s="83"/>
+      <c r="N112" s="83"/>
+      <c r="O112" s="83"/>
+      <c r="P112" s="83"/>
+      <c r="Q112" s="83"/>
+      <c r="R112" s="83"/>
+      <c r="S112" s="83"/>
+      <c r="T112" s="83"/>
+      <c r="U112" s="83"/>
+      <c r="V112" s="83"/>
+      <c r="W112" s="84"/>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B113" s="3"/>
@@ -9061,6 +9047,13 @@
     <row r="131" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J112:W112"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B73:B92"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="B93:B101"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H112:I112"/>
     <mergeCell ref="J2:W2"/>
     <mergeCell ref="J108:W108"/>
     <mergeCell ref="B14:B63"/>
@@ -9070,13 +9063,6 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B107:G107"/>
     <mergeCell ref="B102:B103"/>
-    <mergeCell ref="J112:W112"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B73:B92"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="B93:B101"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="H112:I112"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
